--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary AR1_logistic_lm.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary AR1_logistic_lm.xlsx
@@ -146,10 +146,18 @@
       <c r="F2" t="n">
         <v>100.0</v>
       </c>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="G2" t="n">
+        <v>0.09118570297217375</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9425454545454546</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.941450997030123</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -194,10 +202,16 @@
       <c r="F4" t="n">
         <v>100.0</v>
       </c>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="G4" t="n">
+        <v>0.10730248029310717</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9257407407407408</v>
+      </c>
       <c r="I4"/>
-      <c r="J4"/>
+      <c r="J4" t="n">
+        <v>0.9524074074074074</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -242,10 +256,16 @@
       <c r="F6" t="n">
         <v>100.0</v>
       </c>
-      <c r="G6"/>
-      <c r="H6"/>
+      <c r="G6" t="n">
+        <v>0.0895097121422246</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9425454545454546</v>
+      </c>
       <c r="I6"/>
-      <c r="J6"/>
+      <c r="J6" t="n">
+        <v>0.952060606060606</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -290,10 +310,16 @@
       <c r="F8" t="n">
         <v>100.0</v>
       </c>
-      <c r="G8"/>
-      <c r="H8"/>
+      <c r="G8" t="n">
+        <v>0.10736194457984195</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9253703703703704</v>
+      </c>
       <c r="I8"/>
-      <c r="J8"/>
+      <c r="J8" t="n">
+        <v>0.9590740740740741</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -338,10 +364,16 @@
       <c r="F10" t="n">
         <v>100.0</v>
       </c>
-      <c r="G10"/>
-      <c r="H10"/>
+      <c r="G10" t="n">
+        <v>0.08888062460719097</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9426631917085884</v>
+      </c>
       <c r="I10"/>
-      <c r="J10"/>
+      <c r="J10" t="n">
+        <v>0.9574545454545454</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -386,10 +418,16 @@
       <c r="F12" t="n">
         <v>100.0</v>
       </c>
-      <c r="G12"/>
-      <c r="H12"/>
+      <c r="G12" t="n">
+        <v>0.10609758017917376</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9257407407407408</v>
+      </c>
       <c r="I12"/>
-      <c r="J12"/>
+      <c r="J12" t="n">
+        <v>0.9637037037037037</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -434,10 +472,16 @@
       <c r="F14" t="n">
         <v>100.0</v>
       </c>
-      <c r="G14"/>
-      <c r="H14"/>
+      <c r="G14" t="n">
+        <v>0.08614580271099317</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9425886632312822</v>
+      </c>
       <c r="I14"/>
-      <c r="J14"/>
+      <c r="J14" t="n">
+        <v>0.9743030303030303</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -482,10 +526,16 @@
       <c r="F16" t="n">
         <v>100.0</v>
       </c>
-      <c r="G16"/>
-      <c r="H16"/>
+      <c r="G16" t="n">
+        <v>0.10297175041836185</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9255417669938878</v>
+      </c>
       <c r="I16"/>
-      <c r="J16"/>
+      <c r="J16" t="n">
+        <v>0.9779629629629629</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -530,10 +580,16 @@
       <c r="F18" t="n">
         <v>100.0</v>
       </c>
-      <c r="G18"/>
-      <c r="H18"/>
+      <c r="G18" t="n">
+        <v>0.07764799742206423</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9484986351228389</v>
+      </c>
       <c r="I18"/>
-      <c r="J18"/>
+      <c r="J18" t="n">
+        <v>0.9747272727272728</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -578,10 +634,16 @@
       <c r="F20" t="n">
         <v>100.0</v>
       </c>
-      <c r="G20"/>
-      <c r="H20"/>
+      <c r="G20" t="n">
+        <v>0.0961702798104773</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9343593547190803</v>
+      </c>
       <c r="I20"/>
-      <c r="J20"/>
+      <c r="J20" t="n">
+        <v>0.9794444444444445</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -626,10 +688,18 @@
       <c r="F22" t="n">
         <v>100.0</v>
       </c>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
+      <c r="G22" t="n">
+        <v>0.0961943281416844</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9421212121212121</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.941450997030123</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -674,10 +744,16 @@
       <c r="F24" t="n">
         <v>100.0</v>
       </c>
-      <c r="G24"/>
-      <c r="H24"/>
+      <c r="G24" t="n">
+        <v>0.11133275815808193</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9248148148148149</v>
+      </c>
       <c r="I24"/>
-      <c r="J24"/>
+      <c r="J24" t="n">
+        <v>0.9524074074074074</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -722,10 +798,16 @@
       <c r="F26" t="n">
         <v>100.0</v>
       </c>
-      <c r="G26"/>
-      <c r="H26"/>
+      <c r="G26" t="n">
+        <v>0.09383548953664676</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.941939393939394</v>
+      </c>
       <c r="I26"/>
-      <c r="J26"/>
+      <c r="J26" t="n">
+        <v>0.952060606060606</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -770,10 +852,16 @@
       <c r="F28" t="n">
         <v>100.0</v>
       </c>
-      <c r="G28"/>
-      <c r="H28"/>
+      <c r="G28" t="n">
+        <v>0.11147611593951069</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9244444444444444</v>
+      </c>
       <c r="I28"/>
-      <c r="J28"/>
+      <c r="J28" t="n">
+        <v>0.9590740740740741</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -818,10 +906,16 @@
       <c r="F30" t="n">
         <v>100.0</v>
       </c>
-      <c r="G30"/>
-      <c r="H30"/>
+      <c r="G30" t="n">
+        <v>0.09325843233159029</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.9420570943693557</v>
+      </c>
       <c r="I30"/>
-      <c r="J30"/>
+      <c r="J30" t="n">
+        <v>0.9574545454545454</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -866,10 +960,16 @@
       <c r="F32" t="n">
         <v>100.0</v>
       </c>
-      <c r="G32"/>
-      <c r="H32"/>
+      <c r="G32" t="n">
+        <v>0.1099128349718323</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.9248148148148149</v>
+      </c>
       <c r="I32"/>
-      <c r="J32"/>
+      <c r="J32" t="n">
+        <v>0.9637037037037037</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -914,10 +1014,16 @@
       <c r="F34" t="n">
         <v>100.0</v>
       </c>
-      <c r="G34"/>
-      <c r="H34"/>
+      <c r="G34" t="n">
+        <v>0.09004105491741668</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.9421036677781146</v>
+      </c>
       <c r="I34"/>
-      <c r="J34"/>
+      <c r="J34" t="n">
+        <v>0.9743030303030303</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -962,10 +1068,16 @@
       <c r="F36" t="n">
         <v>100.0</v>
       </c>
-      <c r="G36"/>
-      <c r="H36"/>
+      <c r="G36" t="n">
+        <v>0.10785264966658001</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.9244304500833488</v>
+      </c>
       <c r="I36"/>
-      <c r="J36"/>
+      <c r="J36" t="n">
+        <v>0.9779629629629629</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -1010,10 +1122,16 @@
       <c r="F38" t="n">
         <v>100.0</v>
       </c>
-      <c r="G38"/>
-      <c r="H38"/>
+      <c r="G38" t="n">
+        <v>0.08146099804462094</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.9473460721868365</v>
+      </c>
       <c r="I38"/>
-      <c r="J38"/>
+      <c r="J38" t="n">
+        <v>0.9747272727272728</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -1058,10 +1176,16 @@
       <c r="F40" t="n">
         <v>100.0</v>
       </c>
-      <c r="G40"/>
-      <c r="H40"/>
+      <c r="G40" t="n">
+        <v>0.10009022849158904</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.9338030780641572</v>
+      </c>
       <c r="I40"/>
-      <c r="J40"/>
+      <c r="J40" t="n">
+        <v>0.9794444444444445</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -1106,10 +1230,18 @@
       <c r="F42" t="n">
         <v>100.0</v>
       </c>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
+      <c r="G42" t="n">
+        <v>0.10182771691474381</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.940969696969697</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.941450997030123</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -1154,10 +1286,16 @@
       <c r="F44" t="n">
         <v>100.0</v>
       </c>
-      <c r="G44"/>
-      <c r="H44"/>
+      <c r="G44" t="n">
+        <v>0.11581583026551862</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.9235185185185185</v>
+      </c>
       <c r="I44"/>
-      <c r="J44"/>
+      <c r="J44" t="n">
+        <v>0.9524074074074074</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -1202,10 +1340,16 @@
       <c r="F46" t="n">
         <v>100.0</v>
       </c>
-      <c r="G46"/>
-      <c r="H46"/>
+      <c r="G46" t="n">
+        <v>0.09921656274219816</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9408484848484848</v>
+      </c>
       <c r="I46"/>
-      <c r="J46"/>
+      <c r="J46" t="n">
+        <v>0.952060606060606</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -1250,10 +1394,16 @@
       <c r="F48" t="n">
         <v>100.0</v>
       </c>
-      <c r="G48"/>
-      <c r="H48"/>
+      <c r="G48" t="n">
+        <v>0.11581391815363022</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9231481481481482</v>
+      </c>
       <c r="I48"/>
-      <c r="J48"/>
+      <c r="J48" t="n">
+        <v>0.9590740740740741</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -1298,10 +1448,16 @@
       <c r="F50" t="n">
         <v>100.0</v>
       </c>
-      <c r="G50"/>
-      <c r="H50"/>
+      <c r="G50" t="n">
+        <v>0.09855623259685295</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.9411479483605067</v>
+      </c>
       <c r="I50"/>
-      <c r="J50"/>
+      <c r="J50" t="n">
+        <v>0.9574545454545454</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -1346,10 +1502,16 @@
       <c r="F52" t="n">
         <v>100.0</v>
       </c>
-      <c r="G52"/>
-      <c r="H52"/>
+      <c r="G52" t="n">
+        <v>0.11432019660097187</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.9233333333333333</v>
+      </c>
       <c r="I52"/>
-      <c r="J52"/>
+      <c r="J52" t="n">
+        <v>0.9637037037037037</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -1394,10 +1556,16 @@
       <c r="F54" t="n">
         <v>100.0</v>
       </c>
-      <c r="G54"/>
-      <c r="H54"/>
+      <c r="G54" t="n">
+        <v>0.09494838289115992</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.9413761745983631</v>
+      </c>
       <c r="I54"/>
-      <c r="J54"/>
+      <c r="J54" t="n">
+        <v>0.9743030303030303</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -1442,10 +1610,16 @@
       <c r="F56" t="n">
         <v>100.0</v>
       </c>
-      <c r="G56"/>
-      <c r="H56"/>
+      <c r="G56" t="n">
+        <v>0.11277708972697091</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.9231339136877199</v>
+      </c>
       <c r="I56"/>
-      <c r="J56"/>
+      <c r="J56" t="n">
+        <v>0.9779629629629629</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -1490,10 +1664,16 @@
       <c r="F58" t="n">
         <v>100.0</v>
       </c>
-      <c r="G58"/>
-      <c r="H58"/>
+      <c r="G58" t="n">
+        <v>0.08486643946263119</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.9467394601152563</v>
+      </c>
       <c r="I58"/>
-      <c r="J58"/>
+      <c r="J58" t="n">
+        <v>0.9747272727272728</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -1538,10 +1718,16 @@
       <c r="F60" t="n">
         <v>100.0</v>
       </c>
-      <c r="G60"/>
-      <c r="H60"/>
+      <c r="G60" t="n">
+        <v>0.1047973692400937</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.9332468014092342</v>
+      </c>
       <c r="I60"/>
-      <c r="J60"/>
+      <c r="J60" t="n">
+        <v>0.9794444444444445</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -1586,10 +1772,18 @@
       <c r="F62" t="n">
         <v>100.0</v>
       </c>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
+      <c r="G62" t="n">
+        <v>0.12542744334740494</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.9382424242424242</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.941450997030123</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -1634,10 +1828,16 @@
       <c r="F64" t="n">
         <v>100.0</v>
       </c>
-      <c r="G64"/>
-      <c r="H64"/>
+      <c r="G64" t="n">
+        <v>0.13141663406370993</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.9198148148148149</v>
+      </c>
       <c r="I64"/>
-      <c r="J64"/>
+      <c r="J64" t="n">
+        <v>0.9524074074074074</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
@@ -1682,10 +1882,16 @@
       <c r="F66" t="n">
         <v>100.0</v>
       </c>
-      <c r="G66"/>
-      <c r="H66"/>
+      <c r="G66" t="n">
+        <v>0.12142200386753489</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.9384242424242424</v>
+      </c>
       <c r="I66"/>
-      <c r="J66"/>
+      <c r="J66" t="n">
+        <v>0.952060606060606</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -1730,10 +1936,16 @@
       <c r="F68" t="n">
         <v>100.0</v>
       </c>
-      <c r="G68"/>
-      <c r="H68"/>
+      <c r="G68" t="n">
+        <v>0.13165939926442993</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.9196296296296296</v>
+      </c>
       <c r="I68"/>
-      <c r="J68"/>
+      <c r="J68" t="n">
+        <v>0.9590740740740741</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
@@ -1778,10 +1990,16 @@
       <c r="F70" t="n">
         <v>100.0</v>
       </c>
-      <c r="G70"/>
-      <c r="H70"/>
+      <c r="G70" t="n">
+        <v>0.11895645898246328</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.9388447784714226</v>
+      </c>
       <c r="I70"/>
-      <c r="J70"/>
+      <c r="J70" t="n">
+        <v>0.9574545454545454</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -1826,10 +2044,16 @@
       <c r="F72" t="n">
         <v>100.0</v>
       </c>
-      <c r="G72"/>
-      <c r="H72"/>
+      <c r="G72" t="n">
+        <v>0.13167935932079733</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.9203703703703704</v>
+      </c>
       <c r="I72"/>
-      <c r="J72"/>
+      <c r="J72" t="n">
+        <v>0.9637037037037037</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
@@ -1874,10 +2098,16 @@
       <c r="F74" t="n">
         <v>100.0</v>
       </c>
-      <c r="G74"/>
-      <c r="H74"/>
+      <c r="G74" t="n">
+        <v>0.11199082904377933</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.9396217264791464</v>
+      </c>
       <c r="I74"/>
-      <c r="J74"/>
+      <c r="J74" t="n">
+        <v>0.9743030303030303</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -1922,10 +2152,16 @@
       <c r="F76" t="n">
         <v>100.0</v>
       </c>
-      <c r="G76"/>
-      <c r="H76"/>
+      <c r="G76" t="n">
+        <v>0.12858277815913458</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.9203556214113725</v>
+      </c>
       <c r="I76"/>
-      <c r="J76"/>
+      <c r="J76" t="n">
+        <v>0.9779629629629629</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
@@ -1970,10 +2206,16 @@
       <c r="F78" t="n">
         <v>100.0</v>
       </c>
-      <c r="G78"/>
-      <c r="H78"/>
+      <c r="G78" t="n">
+        <v>0.10300742234704499</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.9441344170811597</v>
+      </c>
       <c r="I78"/>
-      <c r="J78"/>
+      <c r="J78" t="n">
+        <v>0.9747272727272728</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -2018,10 +2260,16 @@
       <c r="F80" t="n">
         <v>100.0</v>
       </c>
-      <c r="G80"/>
-      <c r="H80"/>
+      <c r="G80" t="n">
+        <v>0.12015858184359014</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.9304783092324805</v>
+      </c>
       <c r="I80"/>
-      <c r="J80"/>
+      <c r="J80" t="n">
+        <v>0.9794444444444445</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
@@ -2066,10 +2314,18 @@
       <c r="F82" t="n">
         <v>100.0</v>
       </c>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
+      <c r="G82" t="n">
+        <v>0.13064779498323736</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.9376969696969697</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.941450997030123</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
@@ -2114,10 +2370,16 @@
       <c r="F84" t="n">
         <v>100.0</v>
       </c>
-      <c r="G84"/>
-      <c r="H84"/>
+      <c r="G84" t="n">
+        <v>0.13469090527697494</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.9194444444444444</v>
+      </c>
       <c r="I84"/>
-      <c r="J84"/>
+      <c r="J84" t="n">
+        <v>0.9524074074074074</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
@@ -2162,10 +2424,16 @@
       <c r="F86" t="n">
         <v>100.0</v>
       </c>
-      <c r="G86"/>
-      <c r="H86"/>
+      <c r="G86" t="n">
+        <v>0.12587045335623584</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.9377575757575758</v>
+      </c>
       <c r="I86"/>
-      <c r="J86"/>
+      <c r="J86" t="n">
+        <v>0.952060606060606</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -2210,10 +2478,16 @@
       <c r="F88" t="n">
         <v>100.0</v>
       </c>
-      <c r="G88"/>
-      <c r="H88"/>
+      <c r="G88" t="n">
+        <v>0.13514227706936938</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.9188888888888889</v>
+      </c>
       <c r="I88"/>
-      <c r="J88"/>
+      <c r="J88" t="n">
+        <v>0.9590740740740741</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
@@ -2258,10 +2532,16 @@
       <c r="F90" t="n">
         <v>100.0</v>
       </c>
-      <c r="G90"/>
-      <c r="H90"/>
+      <c r="G90" t="n">
+        <v>0.12322623137329668</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.9384205103339597</v>
+      </c>
       <c r="I90"/>
-      <c r="J90"/>
+      <c r="J90" t="n">
+        <v>0.9574545454545454</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
@@ -2306,10 +2586,16 @@
       <c r="F92" t="n">
         <v>100.0</v>
       </c>
-      <c r="G92"/>
-      <c r="H92"/>
+      <c r="G92" t="n">
+        <v>0.13452750862432994</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.919074074074074</v>
+      </c>
       <c r="I92"/>
-      <c r="J92"/>
+      <c r="J92" t="n">
+        <v>0.9637037037037037</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
@@ -2354,10 +2640,16 @@
       <c r="F94" t="n">
         <v>100.0</v>
       </c>
-      <c r="G94"/>
-      <c r="H94"/>
+      <c r="G94" t="n">
+        <v>0.11612843204901495</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.9390761396702231</v>
+      </c>
       <c r="I94"/>
-      <c r="J94"/>
+      <c r="J94" t="n">
+        <v>0.9743030303030303</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
@@ -2402,10 +2694,16 @@
       <c r="F96" t="n">
         <v>100.0</v>
       </c>
-      <c r="G96"/>
-      <c r="H96"/>
+      <c r="G96" t="n">
+        <v>0.13158289493944764</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.9192443045008335</v>
+      </c>
       <c r="I96"/>
-      <c r="J96"/>
+      <c r="J96" t="n">
+        <v>0.9779629629629629</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
@@ -2450,10 +2748,16 @@
       <c r="F98" t="n">
         <v>100.0</v>
       </c>
-      <c r="G98"/>
-      <c r="H98"/>
+      <c r="G98" t="n">
+        <v>0.10695803363724901</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.9433458692223705</v>
+      </c>
       <c r="I98"/>
-      <c r="J98"/>
+      <c r="J98" t="n">
+        <v>0.9747272727272728</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
@@ -2498,10 +2802,16 @@
       <c r="F100" t="n">
         <v>100.0</v>
       </c>
-      <c r="G100"/>
-      <c r="H100"/>
+      <c r="G100" t="n">
+        <v>0.12358077340914869</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.9299221357063404</v>
+      </c>
       <c r="I100"/>
-      <c r="J100"/>
+      <c r="J100" t="n">
+        <v>0.9794444444444445</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
@@ -2546,10 +2856,18 @@
       <c r="F102" t="n">
         <v>100.0</v>
       </c>
-      <c r="G102"/>
-      <c r="H102"/>
-      <c r="I102"/>
-      <c r="J102"/>
+      <c r="G102" t="n">
+        <v>0.13567477298896072</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.9374545454545454</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.941450997030123</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
@@ -2594,10 +2912,16 @@
       <c r="F104" t="n">
         <v>100.0</v>
       </c>
-      <c r="G104"/>
-      <c r="H104"/>
+      <c r="G104" t="n">
+        <v>0.13777099909020693</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.9192592592592592</v>
+      </c>
       <c r="I104"/>
-      <c r="J104"/>
+      <c r="J104" t="n">
+        <v>0.9524074074074074</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
@@ -2642,10 +2966,16 @@
       <c r="F106" t="n">
         <v>100.0</v>
       </c>
-      <c r="G106"/>
-      <c r="H106"/>
+      <c r="G106" t="n">
+        <v>0.13036892475740677</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.9373939393939394</v>
+      </c>
       <c r="I106"/>
-      <c r="J106"/>
+      <c r="J106" t="n">
+        <v>0.952060606060606</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
@@ -2690,10 +3020,16 @@
       <c r="F108" t="n">
         <v>100.0</v>
       </c>
-      <c r="G108"/>
-      <c r="H108"/>
+      <c r="G108" t="n">
+        <v>0.1381238864569418</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.9183333333333333</v>
+      </c>
       <c r="I108"/>
-      <c r="J108"/>
+      <c r="J108" t="n">
+        <v>0.9590740740740741</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
@@ -2738,10 +3074,16 @@
       <c r="F110" t="n">
         <v>100.0</v>
       </c>
-      <c r="G110"/>
-      <c r="H110"/>
+      <c r="G110" t="n">
+        <v>0.12747930724961898</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.9379356324625735</v>
+      </c>
       <c r="I110"/>
-      <c r="J110"/>
+      <c r="J110" t="n">
+        <v>0.9574545454545454</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
@@ -2786,10 +3128,16 @@
       <c r="F112" t="n">
         <v>100.0</v>
       </c>
-      <c r="G112"/>
-      <c r="H112"/>
+      <c r="G112" t="n">
+        <v>0.13719993373161615</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.9187037037037037</v>
+      </c>
       <c r="I112"/>
-      <c r="J112"/>
+      <c r="J112" t="n">
+        <v>0.9637037037037037</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
@@ -2834,10 +3182,16 @@
       <c r="F114" t="n">
         <v>100.0</v>
       </c>
-      <c r="G114"/>
-      <c r="H114"/>
+      <c r="G114" t="n">
+        <v>0.11958831091442768</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.9383486905916586</v>
+      </c>
       <c r="I114"/>
-      <c r="J114"/>
+      <c r="J114" t="n">
+        <v>0.9743030303030303</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
@@ -2882,10 +3236,16 @@
       <c r="F116" t="n">
         <v>100.0</v>
       </c>
-      <c r="G116"/>
-      <c r="H116"/>
+      <c r="G116" t="n">
+        <v>0.13408838168080522</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.918688646045564</v>
+      </c>
       <c r="I116"/>
-      <c r="J116"/>
+      <c r="J116" t="n">
+        <v>0.9779629629629629</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
@@ -2930,10 +3290,16 @@
       <c r="F118" t="n">
         <v>100.0</v>
       </c>
-      <c r="G118"/>
-      <c r="H118"/>
+      <c r="G118" t="n">
+        <v>0.11140227899248518</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.9428640747255413</v>
+      </c>
       <c r="I118"/>
-      <c r="J118"/>
+      <c r="J118" t="n">
+        <v>0.9747272727272728</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
@@ -2978,10 +3344,16 @@
       <c r="F120" t="n">
         <v>100.0</v>
       </c>
-      <c r="G120"/>
-      <c r="H120"/>
+      <c r="G120" t="n">
+        <v>0.12675812484305407</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.9297367445309603</v>
+      </c>
       <c r="I120"/>
-      <c r="J120"/>
+      <c r="J120" t="n">
+        <v>0.9794444444444445</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
@@ -3026,10 +3398,18 @@
       <c r="F122" t="n">
         <v>100.0</v>
       </c>
-      <c r="G122"/>
-      <c r="H122"/>
-      <c r="I122"/>
-      <c r="J122"/>
+      <c r="G122" t="n">
+        <v>0.13992269936678553</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.9367272727272727</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.941450997030123</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
@@ -3074,10 +3454,16 @@
       <c r="F124" t="n">
         <v>100.0</v>
       </c>
-      <c r="G124"/>
-      <c r="H124"/>
+      <c r="G124" t="n">
+        <v>0.14009056933627181</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.9185185185185185</v>
+      </c>
       <c r="I124"/>
-      <c r="J124"/>
+      <c r="J124" t="n">
+        <v>0.9524074074074074</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
@@ -3122,10 +3508,16 @@
       <c r="F126" t="n">
         <v>100.0</v>
       </c>
-      <c r="G126"/>
-      <c r="H126"/>
+      <c r="G126" t="n">
+        <v>0.13471717041611386</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.9366060606060606</v>
+      </c>
       <c r="I126"/>
-      <c r="J126"/>
+      <c r="J126" t="n">
+        <v>0.952060606060606</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
@@ -3170,10 +3562,16 @@
       <c r="F128" t="n">
         <v>100.0</v>
       </c>
-      <c r="G128"/>
-      <c r="H128"/>
+      <c r="G128" t="n">
+        <v>0.14099016545303994</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.9183333333333333</v>
+      </c>
       <c r="I128"/>
-      <c r="J128"/>
+      <c r="J128" t="n">
+        <v>0.9590740740740741</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
@@ -3218,10 +3616,16 @@
       <c r="F130" t="n">
         <v>100.0</v>
       </c>
-      <c r="G130"/>
-      <c r="H130"/>
+      <c r="G130" t="n">
+        <v>0.13103872183189844</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.9376325837929571</v>
+      </c>
       <c r="I130"/>
-      <c r="J130"/>
+      <c r="J130" t="n">
+        <v>0.9574545454545454</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
@@ -3266,10 +3670,16 @@
       <c r="F132" t="n">
         <v>100.0</v>
       </c>
-      <c r="G132"/>
-      <c r="H132"/>
+      <c r="G132" t="n">
+        <v>0.14034548850218032</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.9187037037037037</v>
+      </c>
       <c r="I132"/>
-      <c r="J132"/>
+      <c r="J132" t="n">
+        <v>0.9637037037037037</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
@@ -3314,10 +3724,16 @@
       <c r="F134" t="n">
         <v>100.0</v>
       </c>
-      <c r="G134"/>
-      <c r="H134"/>
+      <c r="G134" t="n">
+        <v>0.12290547807080802</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.9381062075654704</v>
+      </c>
       <c r="I134"/>
-      <c r="J134"/>
+      <c r="J134" t="n">
+        <v>0.9743030303030303</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
@@ -3362,10 +3778,16 @@
       <c r="F136" t="n">
         <v>100.0</v>
       </c>
-      <c r="G136"/>
-      <c r="H136"/>
+      <c r="G136" t="n">
+        <v>0.13672349411439996</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.9185034265604741</v>
+      </c>
       <c r="I136"/>
-      <c r="J136"/>
+      <c r="J136" t="n">
+        <v>0.9779629629629629</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
@@ -3410,10 +3832,16 @@
       <c r="F138" t="n">
         <v>100.0</v>
       </c>
-      <c r="G138"/>
-      <c r="H138"/>
+      <c r="G138" t="n">
+        <v>0.11415905559754766</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.9426821131800813</v>
+      </c>
       <c r="I138"/>
-      <c r="J138"/>
+      <c r="J138" t="n">
+        <v>0.9747272727272728</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
@@ -3458,10 +3886,16 @@
       <c r="F140" t="n">
         <v>100.0</v>
       </c>
-      <c r="G140"/>
-      <c r="H140"/>
+      <c r="G140" t="n">
+        <v>0.12902156627422198</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.9293659621802002</v>
+      </c>
       <c r="I140"/>
-      <c r="J140"/>
+      <c r="J140" t="n">
+        <v>0.9794444444444445</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
@@ -3506,10 +3940,18 @@
       <c r="F142" t="n">
         <v>100.0</v>
       </c>
-      <c r="G142"/>
-      <c r="H142"/>
-      <c r="I142"/>
-      <c r="J142"/>
+      <c r="G142" t="n">
+        <v>0.1442073918208594</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.9363030303030303</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.941450997030123</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
@@ -3554,10 +3996,16 @@
       <c r="F144" t="n">
         <v>100.0</v>
       </c>
-      <c r="G144"/>
-      <c r="H144"/>
+      <c r="G144" t="n">
+        <v>0.14258389714159553</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.9181481481481482</v>
+      </c>
       <c r="I144"/>
-      <c r="J144"/>
+      <c r="J144" t="n">
+        <v>0.9524074074074074</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
@@ -3602,10 +4050,16 @@
       <c r="F146" t="n">
         <v>100.0</v>
       </c>
-      <c r="G146"/>
-      <c r="H146"/>
+      <c r="G146" t="n">
+        <v>0.1389501549508919</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.9362424242424242</v>
+      </c>
       <c r="I146"/>
-      <c r="J146"/>
+      <c r="J146" t="n">
+        <v>0.952060606060606</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
@@ -3650,10 +4104,16 @@
       <c r="F148" t="n">
         <v>100.0</v>
       </c>
-      <c r="G148"/>
-      <c r="H148"/>
+      <c r="G148" t="n">
+        <v>0.14378511831340504</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.9177777777777778</v>
+      </c>
       <c r="I148"/>
-      <c r="J148"/>
+      <c r="J148" t="n">
+        <v>0.9590740740740741</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
@@ -3698,10 +4158,16 @@
       <c r="F150" t="n">
         <v>100.0</v>
       </c>
-      <c r="G150"/>
-      <c r="H150"/>
+      <c r="G150" t="n">
+        <v>0.13487179793419096</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.9373295351233408</v>
+      </c>
       <c r="I150"/>
-      <c r="J150"/>
+      <c r="J150" t="n">
+        <v>0.9574545454545454</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
@@ -3746,10 +4212,16 @@
       <c r="F152" t="n">
         <v>100.0</v>
       </c>
-      <c r="G152"/>
-      <c r="H152"/>
+      <c r="G152" t="n">
+        <v>0.14300691503662522</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.9181481481481482</v>
+      </c>
       <c r="I152"/>
-      <c r="J152"/>
+      <c r="J152" t="n">
+        <v>0.9637037037037037</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
@@ -3794,10 +4266,16 @@
       <c r="F154" t="n">
         <v>100.0</v>
       </c>
-      <c r="G154"/>
-      <c r="H154"/>
+      <c r="G154" t="n">
+        <v>0.12625229804008078</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.9377424830261881</v>
+      </c>
       <c r="I154"/>
-      <c r="J154"/>
+      <c r="J154" t="n">
+        <v>0.9743030303030303</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
@@ -3842,10 +4320,16 @@
       <c r="F156" t="n">
         <v>100.0</v>
       </c>
-      <c r="G156"/>
-      <c r="H156"/>
+      <c r="G156" t="n">
+        <v>0.13841553052901132</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.9181329875902945</v>
+      </c>
       <c r="I156"/>
-      <c r="J156"/>
+      <c r="J156" t="n">
+        <v>0.9779629629629629</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
@@ -3890,10 +4374,16 @@
       <c r="F158" t="n">
         <v>100.0</v>
       </c>
-      <c r="G158"/>
-      <c r="H158"/>
+      <c r="G158" t="n">
+        <v>0.11738958335959924</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.9424394977861346</v>
+      </c>
       <c r="I158"/>
-      <c r="J158"/>
+      <c r="J158" t="n">
+        <v>0.9747272727272728</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
@@ -3938,10 +4428,16 @@
       <c r="F160" t="n">
         <v>100.0</v>
       </c>
-      <c r="G160"/>
-      <c r="H160"/>
+      <c r="G160" t="n">
+        <v>0.13025510085806352</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.9289951798294401</v>
+      </c>
       <c r="I160"/>
-      <c r="J160"/>
+      <c r="J160" t="n">
+        <v>0.9794444444444445</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
@@ -3986,10 +4482,18 @@
       <c r="F162" t="n">
         <v>100.0</v>
       </c>
-      <c r="G162"/>
-      <c r="H162"/>
-      <c r="I162"/>
-      <c r="J162"/>
+      <c r="G162" t="n">
+        <v>0.15236724261322074</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.9355757575757576</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.941450997030123</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
@@ -4034,10 +4538,16 @@
       <c r="F164" t="n">
         <v>100.0</v>
       </c>
-      <c r="G164"/>
-      <c r="H164"/>
+      <c r="G164" t="n">
+        <v>0.14754384135050927</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.9177777777777778</v>
+      </c>
       <c r="I164"/>
-      <c r="J164"/>
+      <c r="J164" t="n">
+        <v>0.9524074074074074</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
@@ -4082,10 +4592,16 @@
       <c r="F166" t="n">
         <v>100.0</v>
       </c>
-      <c r="G166"/>
-      <c r="H166"/>
+      <c r="G166" t="n">
+        <v>0.14663936658769358</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.9355151515151515</v>
+      </c>
       <c r="I166"/>
-      <c r="J166"/>
+      <c r="J166" t="n">
+        <v>0.952060606060606</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
@@ -4130,10 +4646,16 @@
       <c r="F168" t="n">
         <v>100.0</v>
       </c>
-      <c r="G168"/>
-      <c r="H168"/>
+      <c r="G168" t="n">
+        <v>0.14882835876572612</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.9177777777777778</v>
+      </c>
       <c r="I168"/>
-      <c r="J168"/>
+      <c r="J168" t="n">
+        <v>0.9590740740740741</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
@@ -4178,10 +4700,16 @@
       <c r="F170" t="n">
         <v>100.0</v>
       </c>
-      <c r="G170"/>
-      <c r="H170"/>
+      <c r="G170" t="n">
+        <v>0.14175691024745526</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.9365416085823384</v>
+      </c>
       <c r="I170"/>
-      <c r="J170"/>
+      <c r="J170" t="n">
+        <v>0.9574545454545454</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
@@ -4226,10 +4754,16 @@
       <c r="F172" t="n">
         <v>100.0</v>
       </c>
-      <c r="G172"/>
-      <c r="H172"/>
+      <c r="G172" t="n">
+        <v>0.14820055549545594</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.917962962962963</v>
+      </c>
       <c r="I172"/>
-      <c r="J172"/>
+      <c r="J172" t="n">
+        <v>0.9637037037037037</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
@@ -4274,10 +4808,16 @@
       <c r="F174" t="n">
         <v>100.0</v>
       </c>
-      <c r="G174"/>
-      <c r="H174"/>
+      <c r="G174" t="n">
+        <v>0.13154355133602175</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.9369544131910766</v>
+      </c>
       <c r="I174"/>
-      <c r="J174"/>
+      <c r="J174" t="n">
+        <v>0.9743030303030303</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
@@ -4322,10 +4862,16 @@
       <c r="F176" t="n">
         <v>100.0</v>
       </c>
-      <c r="G176"/>
-      <c r="H176"/>
+      <c r="G176" t="n">
+        <v>0.14357461783941866</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.9173921096499352</v>
+      </c>
       <c r="I176"/>
-      <c r="J176"/>
+      <c r="J176" t="n">
+        <v>0.9779629629629629</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
@@ -4370,10 +4916,16 @@
       <c r="F178" t="n">
         <v>100.0</v>
       </c>
-      <c r="G178"/>
-      <c r="H178"/>
+      <c r="G178" t="n">
+        <v>0.12420350797439103</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.941954266998241</v>
+      </c>
       <c r="I178"/>
-      <c r="J178"/>
+      <c r="J178" t="n">
+        <v>0.9747272727272728</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
@@ -4418,10 +4970,16 @@
       <c r="F180" t="n">
         <v>100.0</v>
       </c>
-      <c r="G180"/>
-      <c r="H180"/>
+      <c r="G180" t="n">
+        <v>0.1331880683740274</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.9284390063033</v>
+      </c>
       <c r="I180"/>
-      <c r="J180"/>
+      <c r="J180" t="n">
+        <v>0.9794444444444445</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
@@ -4466,10 +5024,18 @@
       <c r="F182" t="n">
         <v>100.0</v>
       </c>
-      <c r="G182"/>
-      <c r="H182"/>
-      <c r="I182"/>
-      <c r="J182"/>
+      <c r="G182" t="n">
+        <v>0.17954399228027923</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.9718787878787879</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.6869797679081354</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
@@ -4514,10 +5080,18 @@
       <c r="F184" t="n">
         <v>100.0</v>
       </c>
-      <c r="G184"/>
-      <c r="H184"/>
-      <c r="I184"/>
-      <c r="J184"/>
+      <c r="G184" t="n">
+        <v>0.13676355333868379</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.9694444444444444</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.72744151503899</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
@@ -4562,10 +5136,18 @@
       <c r="F186" t="n">
         <v>100.0</v>
       </c>
-      <c r="G186"/>
-      <c r="H186"/>
-      <c r="I186"/>
-      <c r="J186"/>
+      <c r="G186" t="n">
+        <v>0.15514315102050705</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.9721818181818181</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.7451242481317213</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
@@ -4610,10 +5192,18 @@
       <c r="F188" t="n">
         <v>100.0</v>
       </c>
-      <c r="G188"/>
-      <c r="H188"/>
-      <c r="I188"/>
-      <c r="J188"/>
+      <c r="G188" t="n">
+        <v>0.13310697986891257</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.9703703703703703</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.772929818046788</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
@@ -4658,10 +5248,18 @@
       <c r="F190" t="n">
         <v>100.0</v>
       </c>
-      <c r="G190"/>
-      <c r="H190"/>
-      <c r="I190"/>
-      <c r="J190"/>
+      <c r="G190" t="n">
+        <v>0.13611489916002142</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.9727256197345293</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.7821252810012759</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
@@ -4706,10 +5304,18 @@
       <c r="F192" t="n">
         <v>100.0</v>
       </c>
-      <c r="G192"/>
-      <c r="H192"/>
-      <c r="I192"/>
-      <c r="J192"/>
+      <c r="G192" t="n">
+        <v>0.13203818657732574</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.9692592592592593</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.8072781284812477</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
@@ -4754,10 +5360,18 @@
       <c r="F194" t="n">
         <v>100.0</v>
       </c>
-      <c r="G194"/>
-      <c r="H194"/>
-      <c r="I194"/>
-      <c r="J194"/>
+      <c r="G194" t="n">
+        <v>0.12549110068959188</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.9727796301909669</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.8234400631873139</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
@@ -4802,10 +5416,18 @@
       <c r="F196" t="n">
         <v>100.0</v>
       </c>
-      <c r="G196"/>
-      <c r="H196"/>
-      <c r="I196"/>
-      <c r="J196"/>
+      <c r="G196" t="n">
+        <v>0.12777836867415102</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.9694387849601778</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.8416264389157074</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
@@ -4850,10 +5472,18 @@
       <c r="F198" t="n">
         <v>100.0</v>
       </c>
-      <c r="G198"/>
-      <c r="H198"/>
-      <c r="I198"/>
-      <c r="J198"/>
+      <c r="G198" t="n">
+        <v>0.09689163641631825</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.9752710439761237</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.9185855762804545</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
@@ -4898,10 +5528,16 @@
       <c r="F200" t="n">
         <v>100.0</v>
       </c>
-      <c r="G200"/>
-      <c r="H200"/>
+      <c r="G200" t="n">
+        <v>0.10660086907845426</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.9768699869427345</v>
+      </c>
       <c r="I200"/>
-      <c r="J200"/>
+      <c r="J200" t="n">
+        <v>0.925</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
@@ -4946,10 +5582,18 @@
       <c r="F202" t="n">
         <v>100.0</v>
       </c>
-      <c r="G202"/>
-      <c r="H202"/>
-      <c r="I202"/>
-      <c r="J202"/>
+      <c r="G202" t="n">
+        <v>0.19134329565250666</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.9709696969696969</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.6869797679081354</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
@@ -4994,10 +5638,18 @@
       <c r="F204" t="n">
         <v>100.0</v>
       </c>
-      <c r="G204"/>
-      <c r="H204"/>
-      <c r="I204"/>
-      <c r="J204"/>
+      <c r="G204" t="n">
+        <v>0.14271634857895266</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.9688888888888889</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.72744151503899</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
@@ -5042,10 +5694,18 @@
       <c r="F206" t="n">
         <v>100.0</v>
       </c>
-      <c r="G206"/>
-      <c r="H206"/>
-      <c r="I206"/>
-      <c r="J206"/>
+      <c r="G206" t="n">
+        <v>0.1647955146914125</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0.9713939393939394</v>
+      </c>
+      <c r="I206" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.7451242481317213</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
@@ -5090,10 +5750,18 @@
       <c r="F208" t="n">
         <v>100.0</v>
       </c>
-      <c r="G208"/>
-      <c r="H208"/>
-      <c r="I208"/>
-      <c r="J208"/>
+      <c r="G208" t="n">
+        <v>0.13903660323586303</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.9698148148148148</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.772929818046788</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
@@ -5138,10 +5806,18 @@
       <c r="F210" t="n">
         <v>100.0</v>
       </c>
-      <c r="G210"/>
-      <c r="H210"/>
-      <c r="I210"/>
-      <c r="J210"/>
+      <c r="G210" t="n">
+        <v>0.1434659524247001</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.9715740347899873</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.7821252810012759</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
@@ -5186,10 +5862,18 @@
       <c r="F212" t="n">
         <v>100.0</v>
       </c>
-      <c r="G212"/>
-      <c r="H212"/>
-      <c r="I212"/>
-      <c r="J212"/>
+      <c r="G212" t="n">
+        <v>0.1371869739874739</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.9688888888888889</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.8072781284812477</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
@@ -5234,10 +5918,18 @@
       <c r="F214" t="n">
         <v>100.0</v>
       </c>
-      <c r="G214"/>
-      <c r="H214"/>
-      <c r="I214"/>
-      <c r="J214"/>
+      <c r="G214" t="n">
+        <v>0.13121077703751158</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.97138526826311</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.8234400631873139</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
@@ -5282,10 +5974,18 @@
       <c r="F216" t="n">
         <v>100.0</v>
       </c>
-      <c r="G216"/>
-      <c r="H216"/>
-      <c r="I216"/>
-      <c r="J216"/>
+      <c r="G216" t="n">
+        <v>0.1326733375065805</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.969253565475088</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.8416264389157074</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
@@ -5330,10 +6030,18 @@
       <c r="F218" t="n">
         <v>100.0</v>
       </c>
-      <c r="G218"/>
-      <c r="H218"/>
-      <c r="I218"/>
-      <c r="J218"/>
+      <c r="G218" t="n">
+        <v>0.1015943740770018</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0.9741809767385214</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.9185855762804545</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
@@ -5378,10 +6086,16 @@
       <c r="F220" t="n">
         <v>100.0</v>
       </c>
-      <c r="G220"/>
-      <c r="H220"/>
+      <c r="G220" t="n">
+        <v>0.11192051774154727</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0.9763192243147492</v>
+      </c>
       <c r="I220"/>
-      <c r="J220"/>
+      <c r="J220" t="n">
+        <v>0.925</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
@@ -5426,10 +6140,18 @@
       <c r="F222" t="n">
         <v>100.0</v>
       </c>
-      <c r="G222"/>
-      <c r="H222"/>
-      <c r="I222"/>
-      <c r="J222"/>
+      <c r="G222" t="n">
+        <v>0.20477129959563178</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0.9694545454545455</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.6869797679081354</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
@@ -5474,10 +6196,18 @@
       <c r="F224" t="n">
         <v>100.0</v>
       </c>
-      <c r="G224"/>
-      <c r="H224"/>
-      <c r="I224"/>
-      <c r="J224"/>
+      <c r="G224" t="n">
+        <v>0.14951983741807184</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0.9681481481481482</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.72744151503899</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
@@ -5522,10 +6252,18 @@
       <c r="F226" t="n">
         <v>100.0</v>
       </c>
-      <c r="G226"/>
-      <c r="H226"/>
-      <c r="I226"/>
-      <c r="J226"/>
+      <c r="G226" t="n">
+        <v>0.17592182953782545</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.9702424242424242</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.7451242481317213</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
@@ -5570,10 +6308,18 @@
       <c r="F228" t="n">
         <v>100.0</v>
       </c>
-      <c r="G228"/>
-      <c r="H228"/>
-      <c r="I228"/>
-      <c r="J228"/>
+      <c r="G228" t="n">
+        <v>0.14553969276142184</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.9690740740740741</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.772929818046788</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
@@ -5618,10 +6364,18 @@
       <c r="F230" t="n">
         <v>100.0</v>
       </c>
-      <c r="G230"/>
-      <c r="H230"/>
-      <c r="I230"/>
-      <c r="J230"/>
+      <c r="G230" t="n">
+        <v>0.15179894405391775</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0.970604279047215</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.7821252810012759</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
@@ -5666,10 +6420,18 @@
       <c r="F232" t="n">
         <v>100.0</v>
       </c>
-      <c r="G232"/>
-      <c r="H232"/>
-      <c r="I232"/>
-      <c r="J232"/>
+      <c r="G232" t="n">
+        <v>0.1421980565877997</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0.9679629629629629</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.8072781284812477</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
@@ -5714,10 +6476,18 @@
       <c r="F234" t="n">
         <v>100.0</v>
       </c>
-      <c r="G234"/>
-      <c r="H234"/>
-      <c r="I234"/>
-      <c r="J234"/>
+      <c r="G234" t="n">
+        <v>0.13897815799291172</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0.970112155198545</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.8234400631873139</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
@@ -5762,10 +6532,18 @@
       <c r="F236" t="n">
         <v>100.0</v>
       </c>
-      <c r="G236"/>
-      <c r="H236"/>
-      <c r="I236"/>
-      <c r="J236"/>
+      <c r="G236" t="n">
+        <v>0.1371887280718354</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0.9683274680496389</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.8416264389157074</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
@@ -5810,10 +6588,18 @@
       <c r="F238" t="n">
         <v>100.0</v>
       </c>
-      <c r="G238"/>
-      <c r="H238"/>
-      <c r="I238"/>
-      <c r="J238"/>
+      <c r="G238" t="n">
+        <v>0.10672190427117646</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0.9730404089581305</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.9185855762804545</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
@@ -5858,10 +6644,16 @@
       <c r="F240" t="n">
         <v>100.0</v>
       </c>
-      <c r="G240"/>
-      <c r="H240"/>
+      <c r="G240" t="n">
+        <v>0.11724244787456291</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0.9755779269202088</v>
+      </c>
       <c r="I240"/>
-      <c r="J240"/>
+      <c r="J240" t="n">
+        <v>0.925</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
@@ -5906,10 +6698,18 @@
       <c r="F242" t="n">
         <v>100.0</v>
       </c>
-      <c r="G242"/>
-      <c r="H242"/>
-      <c r="I242"/>
-      <c r="J242"/>
+      <c r="G242" t="n">
+        <v>0.25034967475543035</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0.9649696969696969</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.6869797679081354</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
@@ -5954,10 +6754,18 @@
       <c r="F244" t="n">
         <v>100.0</v>
       </c>
-      <c r="G244"/>
-      <c r="H244"/>
-      <c r="I244"/>
-      <c r="J244"/>
+      <c r="G244" t="n">
+        <v>0.17249996850018548</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.72744151503899</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
@@ -6002,10 +6810,18 @@
       <c r="F246" t="n">
         <v>100.0</v>
       </c>
-      <c r="G246"/>
-      <c r="H246"/>
-      <c r="I246"/>
-      <c r="J246"/>
+      <c r="G246" t="n">
+        <v>0.21434977050307527</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.9656363636363636</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.7451242481317213</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
@@ -6050,10 +6866,18 @@
       <c r="F248" t="n">
         <v>100.0</v>
       </c>
-      <c r="G248"/>
-      <c r="H248"/>
-      <c r="I248"/>
-      <c r="J248"/>
+      <c r="G248" t="n">
+        <v>0.1663782398661896</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0.9655555555555555</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.772929818046788</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
@@ -6098,10 +6922,18 @@
       <c r="F250" t="n">
         <v>100.0</v>
       </c>
-      <c r="G250"/>
-      <c r="H250"/>
-      <c r="I250"/>
-      <c r="J250"/>
+      <c r="G250" t="n">
+        <v>0.18383273924648616</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0.9670283047457422</v>
+      </c>
+      <c r="I250" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.7821252810012759</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
@@ -6146,10 +6978,18 @@
       <c r="F252" t="n">
         <v>100.0</v>
       </c>
-      <c r="G252"/>
-      <c r="H252"/>
-      <c r="I252"/>
-      <c r="J252"/>
+      <c r="G252" t="n">
+        <v>0.1617866774304778</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0.9640740740740741</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.8072781284812477</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
@@ -6194,10 +7034,18 @@
       <c r="F254" t="n">
         <v>100.0</v>
       </c>
-      <c r="G254"/>
-      <c r="H254"/>
-      <c r="I254"/>
-      <c r="J254"/>
+      <c r="G254" t="n">
+        <v>0.1676174426788189</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0.9676285160038798</v>
+      </c>
+      <c r="I254" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.8234400631873139</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
@@ -6242,10 +7090,18 @@
       <c r="F256" t="n">
         <v>100.0</v>
       </c>
-      <c r="G256"/>
-      <c r="H256"/>
-      <c r="I256"/>
-      <c r="J256"/>
+      <c r="G256" t="n">
+        <v>0.1553944461887481</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0.9642526393776625</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.8416264389157074</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
@@ -6290,10 +7146,18 @@
       <c r="F258" t="n">
         <v>100.0</v>
       </c>
-      <c r="G258"/>
-      <c r="H258"/>
-      <c r="I258"/>
-      <c r="J258"/>
+      <c r="G258" t="n">
+        <v>0.12924274452608647</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0.970148346303502</v>
+      </c>
+      <c r="I258" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.9185855762804545</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
@@ -6338,10 +7202,16 @@
       <c r="F260" t="n">
         <v>100.0</v>
       </c>
-      <c r="G260"/>
-      <c r="H260"/>
+      <c r="G260" t="n">
+        <v>0.13487095225376475</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.9731693683622136</v>
+      </c>
       <c r="I260"/>
-      <c r="J260"/>
+      <c r="J260" t="n">
+        <v>0.925</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
@@ -6386,10 +7256,18 @@
       <c r="F262" t="n">
         <v>100.0</v>
       </c>
-      <c r="G262"/>
-      <c r="H262"/>
-      <c r="I262"/>
-      <c r="J262"/>
+      <c r="G262" t="n">
+        <v>0.2593577367712635</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="I262" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.6869797679081354</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
@@ -6434,10 +7312,18 @@
       <c r="F264" t="n">
         <v>100.0</v>
       </c>
-      <c r="G264"/>
-      <c r="H264"/>
-      <c r="I264"/>
-      <c r="J264"/>
+      <c r="G264" t="n">
+        <v>0.1760872803718284</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0.9635185185185186</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.72744151503899</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
@@ -6482,10 +7368,18 @@
       <c r="F266" t="n">
         <v>100.0</v>
       </c>
-      <c r="G266"/>
-      <c r="H266"/>
-      <c r="I266"/>
-      <c r="J266"/>
+      <c r="G266" t="n">
+        <v>0.22177176479061111</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0.9647878787878787</v>
+      </c>
+      <c r="I266" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.7451242481317213</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
@@ -6530,10 +7424,18 @@
       <c r="F268" t="n">
         <v>100.0</v>
       </c>
-      <c r="G268"/>
-      <c r="H268"/>
-      <c r="I268"/>
-      <c r="J268"/>
+      <c r="G268" t="n">
+        <v>0.1708688716909572</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0.9640740740740741</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.772929818046788</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
@@ -6578,10 +7480,18 @@
       <c r="F270" t="n">
         <v>100.0</v>
       </c>
-      <c r="G270"/>
-      <c r="H270"/>
-      <c r="I270"/>
-      <c r="J270"/>
+      <c r="G270" t="n">
+        <v>0.19056552044117053</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0.9666646463422025</v>
+      </c>
+      <c r="I270" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.7821252810012759</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
@@ -6626,10 +7536,18 @@
       <c r="F272" t="n">
         <v>100.0</v>
       </c>
-      <c r="G272"/>
-      <c r="H272"/>
-      <c r="I272"/>
-      <c r="J272"/>
+      <c r="G272" t="n">
+        <v>0.165791086253692</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0.9633333333333334</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.8072781284812477</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
@@ -6674,10 +7592,18 @@
       <c r="F274" t="n">
         <v>100.0</v>
       </c>
-      <c r="G274"/>
-      <c r="H274"/>
-      <c r="I274"/>
-      <c r="J274"/>
+      <c r="G274" t="n">
+        <v>0.17366398949833897</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0.9670829291949563</v>
+      </c>
+      <c r="I274" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.8234400631873139</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
@@ -6722,10 +7648,18 @@
       <c r="F276" t="n">
         <v>100.0</v>
       </c>
-      <c r="G276"/>
-      <c r="H276"/>
-      <c r="I276"/>
-      <c r="J276"/>
+      <c r="G276" t="n">
+        <v>0.1593307636719835</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0.9633265419522133</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.8416264389157074</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
@@ -6770,10 +7704,18 @@
       <c r="F278" t="n">
         <v>100.0</v>
       </c>
-      <c r="G278"/>
-      <c r="H278"/>
-      <c r="I278"/>
-      <c r="J278"/>
+      <c r="G278" t="n">
+        <v>0.1334117185969038</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0.9696674974165704</v>
+      </c>
+      <c r="I278" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.9185855762804545</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
@@ -6818,10 +7760,16 @@
       <c r="F280" t="n">
         <v>100.0</v>
       </c>
-      <c r="G280"/>
-      <c r="H280"/>
+      <c r="G280" t="n">
+        <v>0.13908201217281194</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0.9726205997392438</v>
+      </c>
       <c r="I280"/>
-      <c r="J280"/>
+      <c r="J280" t="n">
+        <v>0.925</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
@@ -6866,10 +7814,18 @@
       <c r="F282" t="n">
         <v>100.0</v>
       </c>
-      <c r="G282"/>
-      <c r="H282"/>
-      <c r="I282"/>
-      <c r="J282"/>
+      <c r="G282" t="n">
+        <v>0.2670033125131451</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0.9626060606060606</v>
+      </c>
+      <c r="I282" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.6869797679081354</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
@@ -6914,10 +7870,18 @@
       <c r="F284" t="n">
         <v>100.0</v>
       </c>
-      <c r="G284"/>
-      <c r="H284"/>
-      <c r="I284"/>
-      <c r="J284"/>
+      <c r="G284" t="n">
+        <v>0.1800196036678101</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0.9629629629629629</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.72744151503899</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
@@ -6962,10 +7926,18 @@
       <c r="F286" t="n">
         <v>100.0</v>
       </c>
-      <c r="G286"/>
-      <c r="H286"/>
-      <c r="I286"/>
-      <c r="J286"/>
+      <c r="G286" t="n">
+        <v>0.22894845940828695</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0.9638181818181818</v>
+      </c>
+      <c r="I286" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.7451242481317213</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
@@ -7010,10 +7982,18 @@
       <c r="F288" t="n">
         <v>100.0</v>
       </c>
-      <c r="G288"/>
-      <c r="H288"/>
-      <c r="I288"/>
-      <c r="J288"/>
+      <c r="G288" t="n">
+        <v>0.17438008160076918</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0.9635185185185186</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.772929818046788</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
@@ -7058,10 +8038,18 @@
       <c r="F290" t="n">
         <v>100.0</v>
       </c>
-      <c r="G290"/>
-      <c r="H290"/>
-      <c r="I290"/>
-      <c r="J290"/>
+      <c r="G290" t="n">
+        <v>0.1966963971827939</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0.9658161100672769</v>
+      </c>
+      <c r="I290" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.7821252810012759</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
@@ -7106,10 +8094,18 @@
       <c r="F292" t="n">
         <v>100.0</v>
       </c>
-      <c r="G292"/>
-      <c r="H292"/>
-      <c r="I292"/>
-      <c r="J292"/>
+      <c r="G292" t="n">
+        <v>0.16956220969641</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0.9622222222222222</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.8072781284812477</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
@@ -7154,10 +8150,18 @@
       <c r="F294" t="n">
         <v>100.0</v>
       </c>
-      <c r="G294"/>
-      <c r="H294"/>
-      <c r="I294"/>
-      <c r="J294"/>
+      <c r="G294" t="n">
+        <v>0.17901320414762392</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0.9663554801163918</v>
+      </c>
+      <c r="I294" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.8234400631873139</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
@@ -7202,10 +8206,18 @@
       <c r="F296" t="n">
         <v>100.0</v>
       </c>
-      <c r="G296"/>
-      <c r="H296"/>
-      <c r="I296"/>
-      <c r="J296"/>
+      <c r="G296" t="n">
+        <v>0.1625184434208638</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0.9622152250416743</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.8416264389157074</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
@@ -7250,10 +8262,18 @@
       <c r="F298" t="n">
         <v>100.0</v>
       </c>
-      <c r="G298"/>
-      <c r="H298"/>
-      <c r="I298"/>
-      <c r="J298"/>
+      <c r="G298" t="n">
+        <v>0.1373332296552241</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0.9689456092373139</v>
+      </c>
+      <c r="I298" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.9185855762804545</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
@@ -7298,10 +8318,16 @@
       <c r="F300" t="n">
         <v>100.0</v>
       </c>
-      <c r="G300"/>
-      <c r="H300"/>
+      <c r="G300" t="n">
+        <v>0.14155588027429183</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0.9722532588454376</v>
+      </c>
       <c r="I300"/>
-      <c r="J300"/>
+      <c r="J300" t="n">
+        <v>0.925</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
@@ -7346,10 +8372,18 @@
       <c r="F302" t="n">
         <v>100.0</v>
       </c>
-      <c r="G302"/>
-      <c r="H302"/>
-      <c r="I302"/>
-      <c r="J302"/>
+      <c r="G302" t="n">
+        <v>0.27460700703855345</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0.9621212121212122</v>
+      </c>
+      <c r="I302" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.6870632557574284</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
@@ -7394,10 +8428,18 @@
       <c r="F304" t="n">
         <v>100.0</v>
       </c>
-      <c r="G304"/>
-      <c r="H304"/>
-      <c r="I304"/>
-      <c r="J304"/>
+      <c r="G304" t="n">
+        <v>0.18388697701956885</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0.9627777777777777</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.72744151503899</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
@@ -7442,10 +8484,18 @@
       <c r="F306" t="n">
         <v>100.0</v>
       </c>
-      <c r="G306"/>
-      <c r="H306"/>
-      <c r="I306"/>
-      <c r="J306"/>
+      <c r="G306" t="n">
+        <v>0.23495939802757781</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0.9632727272727273</v>
+      </c>
+      <c r="I306" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.7452148022118248</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
@@ -7490,10 +8540,18 @@
       <c r="F308" t="n">
         <v>100.0</v>
       </c>
-      <c r="G308"/>
-      <c r="H308"/>
-      <c r="I308"/>
-      <c r="J308"/>
+      <c r="G308" t="n">
+        <v>0.17822860365537394</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0.9629629629629629</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.772929818046788</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
@@ -7538,10 +8596,18 @@
       <c r="F310" t="n">
         <v>100.0</v>
       </c>
-      <c r="G310"/>
-      <c r="H310"/>
-      <c r="I310"/>
-      <c r="J310"/>
+      <c r="G310" t="n">
+        <v>0.20203134502885015</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0.9650887932601976</v>
+      </c>
+      <c r="I310" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.7822203317737133</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
@@ -7586,10 +8652,18 @@
       <c r="F312" t="n">
         <v>100.0</v>
       </c>
-      <c r="G312"/>
-      <c r="H312"/>
-      <c r="I312"/>
-      <c r="J312"/>
+      <c r="G312" t="n">
+        <v>0.17336176377622717</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0.9616666666666667</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.8072781284812477</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
@@ -7634,10 +8708,18 @@
       <c r="F314" t="n">
         <v>100.0</v>
       </c>
-      <c r="G314"/>
-      <c r="H314"/>
-      <c r="I314"/>
-      <c r="J314"/>
+      <c r="G314" t="n">
+        <v>0.18399241900080912</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0.9658705140640155</v>
+      </c>
+      <c r="I314" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.8234400631873139</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
@@ -7682,10 +8764,18 @@
       <c r="F316" t="n">
         <v>100.0</v>
       </c>
-      <c r="G316"/>
-      <c r="H316"/>
-      <c r="I316"/>
-      <c r="J316"/>
+      <c r="G316" t="n">
+        <v>0.16630651340798525</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0.9616595665864048</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.8416264389157074</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
@@ -7730,10 +8820,18 @@
       <c r="F318" t="n">
         <v>100.0</v>
       </c>
-      <c r="G318"/>
-      <c r="H318"/>
-      <c r="I318"/>
-      <c r="J318"/>
+      <c r="G318" t="n">
+        <v>0.14082459372637943</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0.9682867557715674</v>
+      </c>
+      <c r="I318" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.9185855762804545</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
@@ -7778,10 +8876,16 @@
       <c r="F320" t="n">
         <v>100.0</v>
       </c>
-      <c r="G320"/>
-      <c r="H320"/>
+      <c r="G320" t="n">
+        <v>0.14435003422967316</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0.9718860547384099</v>
+      </c>
       <c r="I320"/>
-      <c r="J320"/>
+      <c r="J320" t="n">
+        <v>0.925</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
@@ -7826,10 +8930,18 @@
       <c r="F322" t="n">
         <v>100.0</v>
       </c>
-      <c r="G322"/>
-      <c r="H322"/>
-      <c r="I322"/>
-      <c r="J322"/>
+      <c r="G322" t="n">
+        <v>0.28135727390765325</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0.9612121212121212</v>
+      </c>
+      <c r="I322" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.687105007292173</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
@@ -7874,10 +8986,18 @@
       <c r="F324" t="n">
         <v>100.0</v>
       </c>
-      <c r="G324"/>
-      <c r="H324"/>
-      <c r="I324"/>
-      <c r="J324"/>
+      <c r="G324" t="n">
+        <v>0.18748027453887692</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0.9625925925925926</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.72744151503899</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
@@ -7922,10 +9042,18 @@
       <c r="F326" t="n">
         <v>100.0</v>
       </c>
-      <c r="G326"/>
-      <c r="H326"/>
-      <c r="I326"/>
-      <c r="J326"/>
+      <c r="G326" t="n">
+        <v>0.24090032182250223</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0.9629090909090909</v>
+      </c>
+      <c r="I326" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.7452148022118248</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
@@ -7970,10 +9098,18 @@
       <c r="F328" t="n">
         <v>100.0</v>
       </c>
-      <c r="G328"/>
-      <c r="H328"/>
-      <c r="I328"/>
-      <c r="J328"/>
+      <c r="G328" t="n">
+        <v>0.18144948383745196</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0.9627777777777777</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.772929818046788</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
@@ -8018,10 +9154,18 @@
       <c r="F330" t="n">
         <v>100.0</v>
       </c>
-      <c r="G330"/>
-      <c r="H330"/>
-      <c r="I330"/>
-      <c r="J330"/>
+      <c r="G330" t="n">
+        <v>0.20705767287626217</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0.9646039153888114</v>
+      </c>
+      <c r="I330" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.7822203317737133</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
@@ -8066,10 +9210,18 @@
       <c r="F332" t="n">
         <v>100.0</v>
       </c>
-      <c r="G332"/>
-      <c r="H332"/>
-      <c r="I332"/>
-      <c r="J332"/>
+      <c r="G332" t="n">
+        <v>0.17659748157062943</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0.9614814814814815</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.8072781284812477</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
@@ -8114,10 +9266,18 @@
       <c r="F334" t="n">
         <v>100.0</v>
       </c>
-      <c r="G334"/>
-      <c r="H334"/>
-      <c r="I334"/>
-      <c r="J334"/>
+      <c r="G334" t="n">
+        <v>0.18900661217464618</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0.9653855480116392</v>
+      </c>
+      <c r="I334" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.8234400631873139</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
@@ -8162,10 +9322,18 @@
       <c r="F336" t="n">
         <v>100.0</v>
       </c>
-      <c r="G336"/>
-      <c r="H336"/>
-      <c r="I336"/>
-      <c r="J336"/>
+      <c r="G336" t="n">
+        <v>0.16854230601274237</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0.9616595665864048</v>
+      </c>
+      <c r="I336" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.8416264389157074</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
@@ -8210,10 +9378,18 @@
       <c r="F338" t="n">
         <v>100.0</v>
       </c>
-      <c r="G338"/>
-      <c r="H338"/>
-      <c r="I338"/>
-      <c r="J338"/>
+      <c r="G338" t="n">
+        <v>0.1444222958111847</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0.967741935483871</v>
+      </c>
+      <c r="I338" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.9185855762804545</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
@@ -8258,10 +9434,16 @@
       <c r="F340" t="n">
         <v>100.0</v>
       </c>
-      <c r="G340"/>
-      <c r="H340"/>
+      <c r="G340" t="n">
+        <v>0.14677873022243884</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0.9715189873417721</v>
+      </c>
       <c r="I340"/>
-      <c r="J340"/>
+      <c r="J340" t="n">
+        <v>0.925</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
@@ -8306,10 +9488,18 @@
       <c r="F342" t="n">
         <v>100.0</v>
       </c>
-      <c r="G342"/>
-      <c r="H342"/>
-      <c r="I342"/>
-      <c r="J342"/>
+      <c r="G342" t="n">
+        <v>0.2940081212909801</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0.9596969696969697</v>
+      </c>
+      <c r="I342" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.6888212001218398</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
@@ -8354,10 +9544,18 @@
       <c r="F344" t="n">
         <v>100.0</v>
       </c>
-      <c r="G344"/>
-      <c r="H344"/>
-      <c r="I344"/>
-      <c r="J344"/>
+      <c r="G344" t="n">
+        <v>0.19404440229109823</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0.9622222222222222</v>
+      </c>
+      <c r="I344" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.72744151503899</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
@@ -8402,10 +9600,18 @@
       <c r="F346" t="n">
         <v>100.0</v>
       </c>
-      <c r="G346"/>
-      <c r="H346"/>
-      <c r="I346"/>
-      <c r="J346"/>
+      <c r="G346" t="n">
+        <v>0.2519563997414198</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0.9613939393939394</v>
+      </c>
+      <c r="I346" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.7462123516884698</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
@@ -8450,10 +9656,18 @@
       <c r="F348" t="n">
         <v>100.0</v>
       </c>
-      <c r="G348"/>
-      <c r="H348"/>
-      <c r="I348"/>
-      <c r="J348"/>
+      <c r="G348" t="n">
+        <v>0.18795306983696877</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0.9618518518518518</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.772929818046788</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
@@ -8498,10 +9712,18 @@
       <c r="F350" t="n">
         <v>100.0</v>
       </c>
-      <c r="G350"/>
-      <c r="H350"/>
-      <c r="I350"/>
-      <c r="J350"/>
+      <c r="G350" t="n">
+        <v>0.21652201258772394</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0.9627250136371901</v>
+      </c>
+      <c r="I350" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.7825056227584949</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
@@ -8546,10 +9768,18 @@
       <c r="F352" t="n">
         <v>100.0</v>
       </c>
-      <c r="G352"/>
-      <c r="H352"/>
-      <c r="I352"/>
-      <c r="J352"/>
+      <c r="G352" t="n">
+        <v>0.1831362739463109</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0.9601851851851851</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.8072781284812477</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
@@ -8594,10 +9824,18 @@
       <c r="F354" t="n">
         <v>100.0</v>
       </c>
-      <c r="G354"/>
-      <c r="H354"/>
-      <c r="I354"/>
-      <c r="J354"/>
+      <c r="G354" t="n">
+        <v>0.19803890164510737</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0.9647187196896218</v>
+      </c>
+      <c r="I354" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.8236902880758478</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
@@ -8642,10 +9880,18 @@
       <c r="F356" t="n">
         <v>100.0</v>
       </c>
-      <c r="G356"/>
-      <c r="H356"/>
-      <c r="I356"/>
-      <c r="J356"/>
+      <c r="G356" t="n">
+        <v>0.17397902659669903</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0.9607334691609557</v>
+      </c>
+      <c r="I356" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.8416264389157074</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
@@ -8690,10 +9936,18 @@
       <c r="F358" t="n">
         <v>100.0</v>
       </c>
-      <c r="G358"/>
-      <c r="H358"/>
-      <c r="I358"/>
-      <c r="J358"/>
+      <c r="G358" t="n">
+        <v>0.1511894461440211</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0.9672599161756666</v>
+      </c>
+      <c r="I358" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.9188647137474171</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
@@ -8738,10 +9992,16 @@
       <c r="F360" t="n">
         <v>100.0</v>
       </c>
-      <c r="G360"/>
-      <c r="H360"/>
+      <c r="G360" t="n">
+        <v>0.15050137056161153</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0.9711466865227103</v>
+      </c>
       <c r="I360"/>
-      <c r="J360"/>
+      <c r="J360" t="n">
+        <v>0.925</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
@@ -8786,10 +10046,18 @@
       <c r="F362" t="n">
         <v>100.0</v>
       </c>
-      <c r="G362"/>
-      <c r="H362"/>
-      <c r="I362"/>
-      <c r="J362"/>
+      <c r="G362" t="n">
+        <v>0.2764719109546575</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0.9946060606060606</v>
+      </c>
+      <c r="I362" t="n">
+        <v>0.7298245614035088</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.16077705827937094</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
@@ -8834,10 +10102,18 @@
       <c r="F364" t="n">
         <v>100.0</v>
       </c>
-      <c r="G364"/>
-      <c r="H364"/>
-      <c r="I364"/>
-      <c r="J364"/>
+      <c r="G364" t="n">
+        <v>0.18231264115259835</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0.9964814814814815</v>
+      </c>
+      <c r="I364" t="n">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.1487915407854985</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
@@ -8882,10 +10158,18 @@
       <c r="F366" t="n">
         <v>100.0</v>
       </c>
-      <c r="G366"/>
-      <c r="H366"/>
-      <c r="I366"/>
-      <c r="J366"/>
+      <c r="G366" t="n">
+        <v>0.26111630852235324</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0.9941818181818182</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0.7243816254416962</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.19892705185916015</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
@@ -8930,10 +10214,18 @@
       <c r="F368" t="n">
         <v>100.0</v>
       </c>
-      <c r="G368"/>
-      <c r="H368"/>
-      <c r="I368"/>
-      <c r="J368"/>
+      <c r="G368" t="n">
+        <v>0.16227042052810153</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0.9979629629629629</v>
+      </c>
+      <c r="I368" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.19710090361445784</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
@@ -8978,10 +10270,18 @@
       <c r="F370" t="n">
         <v>100.0</v>
       </c>
-      <c r="G370"/>
-      <c r="H370"/>
-      <c r="I370"/>
-      <c r="J370"/>
+      <c r="G370" t="n">
+        <v>0.247733272470374</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0.9947269531486757</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0.7127659574468085</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.22653841410778147</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
@@ -9026,10 +10326,18 @@
       <c r="F372" t="n">
         <v>100.0</v>
       </c>
-      <c r="G372"/>
-      <c r="H372"/>
-      <c r="I372"/>
-      <c r="J372"/>
+      <c r="G372" t="n">
+        <v>0.1476759034108492</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0.9979629629629629</v>
+      </c>
+      <c r="I372" t="n">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.23933070125963526</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
@@ -9074,10 +10382,18 @@
       <c r="F374" t="n">
         <v>100.0</v>
       </c>
-      <c r="G374"/>
-      <c r="H374"/>
-      <c r="I374"/>
-      <c r="J374"/>
+      <c r="G374" t="n">
+        <v>0.21540169340179752</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0.9937560620756547</v>
+      </c>
+      <c r="I374" t="n">
+        <v>0.7392739273927392</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.3145026856825338</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
@@ -9122,10 +10438,18 @@
       <c r="F376" t="n">
         <v>100.0</v>
       </c>
-      <c r="G376"/>
-      <c r="H376"/>
-      <c r="I376"/>
-      <c r="J376"/>
+      <c r="G376" t="n">
+        <v>0.12903193038177851</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0.9981478051491017</v>
+      </c>
+      <c r="I376" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.34319080806178187</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
@@ -9170,10 +10494,18 @@
       <c r="F378" t="n">
         <v>100.0</v>
       </c>
-      <c r="G378"/>
-      <c r="H378"/>
-      <c r="I378"/>
-      <c r="J378"/>
+      <c r="G378" t="n">
+        <v>0.1820355647371423</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0.9924075434729366</v>
+      </c>
+      <c r="I378" t="n">
+        <v>0.7624633431085044</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.4552880747571013</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
@@ -9218,10 +10550,18 @@
       <c r="F380" t="n">
         <v>100.0</v>
       </c>
-      <c r="G380"/>
-      <c r="H380"/>
-      <c r="I380"/>
-      <c r="J380"/>
+      <c r="G380" t="n">
+        <v>0.11797104783557985</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0.9988793425476279</v>
+      </c>
+      <c r="I380" t="n">
+        <v>0.058823529411764705</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.4568084711127624</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
@@ -9266,10 +10606,18 @@
       <c r="F382" t="n">
         <v>100.0</v>
       </c>
-      <c r="G382"/>
-      <c r="H382"/>
-      <c r="I382"/>
-      <c r="J382"/>
+      <c r="G382" t="n">
+        <v>0.29845875329786087</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="I382" t="n">
+        <v>0.7298245614035088</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.16077705827937094</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
@@ -9314,10 +10662,18 @@
       <c r="F384" t="n">
         <v>100.0</v>
       </c>
-      <c r="G384"/>
-      <c r="H384"/>
-      <c r="I384"/>
-      <c r="J384"/>
+      <c r="G384" t="n">
+        <v>0.19610801542884834</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0.9964814814814815</v>
+      </c>
+      <c r="I384" t="n">
+        <v>0.6509433962264151</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.14865885908575746</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
@@ -9362,10 +10718,18 @@
       <c r="F386" t="n">
         <v>100.0</v>
       </c>
-      <c r="G386"/>
-      <c r="H386"/>
-      <c r="I386"/>
-      <c r="J386"/>
+      <c r="G386" t="n">
+        <v>0.2826009012846649</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0.9937575757575757</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0.7243816254416962</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.19892705185916015</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
@@ -9410,10 +10774,18 @@
       <c r="F388" t="n">
         <v>100.0</v>
       </c>
-      <c r="G388"/>
-      <c r="H388"/>
-      <c r="I388"/>
-      <c r="J388"/>
+      <c r="G388" t="n">
+        <v>0.174296895654656</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0.9975925925925926</v>
+      </c>
+      <c r="I388" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.19710090361445784</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
@@ -9458,10 +10830,18 @@
       <c r="F390" t="n">
         <v>100.0</v>
       </c>
-      <c r="G390"/>
-      <c r="H390"/>
-      <c r="I390"/>
-      <c r="J390"/>
+      <c r="G390" t="n">
+        <v>0.2689411679276487</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0.9944239044790594</v>
+      </c>
+      <c r="I390" t="n">
+        <v>0.7127659574468085</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.22653841410778147</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
@@ -9506,10 +10886,18 @@
       <c r="F392" t="n">
         <v>100.0</v>
       </c>
-      <c r="G392"/>
-      <c r="H392"/>
-      <c r="I392"/>
-      <c r="J392"/>
+      <c r="G392" t="n">
+        <v>0.1584100096786262</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0.9979629629629629</v>
+      </c>
+      <c r="I392" t="n">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.23933070125963526</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
@@ -9554,10 +10942,18 @@
       <c r="F394" t="n">
         <v>100.0</v>
       </c>
-      <c r="G394"/>
-      <c r="H394"/>
-      <c r="I394"/>
-      <c r="J394"/>
+      <c r="G394" t="n">
+        <v>0.23395074222768583</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0.9935135790494666</v>
+      </c>
+      <c r="I394" t="n">
+        <v>0.7435064935064936</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.3145998023715415</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
@@ -9602,10 +10998,18 @@
       <c r="F396" t="n">
         <v>100.0</v>
       </c>
-      <c r="G396"/>
-      <c r="H396"/>
-      <c r="I396"/>
-      <c r="J396"/>
+      <c r="G396" t="n">
+        <v>0.13849525988717515</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0.9981478051491017</v>
+      </c>
+      <c r="I396" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.34319080806178187</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
@@ -9650,10 +11054,18 @@
       <c r="F398" t="n">
         <v>100.0</v>
       </c>
-      <c r="G398"/>
-      <c r="H398"/>
-      <c r="I398"/>
-      <c r="J398"/>
+      <c r="G398" t="n">
+        <v>0.19590951008129498</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0.9919789370560862</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0.7652173913043478</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.4554008047044259</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
@@ -9698,10 +11110,18 @@
       <c r="F400" t="n">
         <v>100.0</v>
       </c>
-      <c r="G400"/>
-      <c r="H400"/>
-      <c r="I400"/>
-      <c r="J400"/>
+      <c r="G400" t="n">
+        <v>0.12566167662868458</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0.9971983563690698</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0.6792452830188679</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.45969702636992704</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
@@ -9746,10 +11166,18 @@
       <c r="F402" t="n">
         <v>100.0</v>
       </c>
-      <c r="G402"/>
-      <c r="H402"/>
-      <c r="I402"/>
-      <c r="J402"/>
+      <c r="G402" t="n">
+        <v>0.3243552359333806</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0.9934545454545455</v>
+      </c>
+      <c r="I402" t="n">
+        <v>0.7636363636363637</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.1611626468769326</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
@@ -9794,10 +11222,18 @@
       <c r="F404" t="n">
         <v>100.0</v>
       </c>
-      <c r="G404"/>
-      <c r="H404"/>
-      <c r="I404"/>
-      <c r="J404"/>
+      <c r="G404" t="n">
+        <v>0.21177133942446968</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0.9955555555555555</v>
+      </c>
+      <c r="I404" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.14833711262282692</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="s">
@@ -9842,10 +11278,18 @@
       <c r="F406" t="n">
         <v>100.0</v>
       </c>
-      <c r="G406"/>
-      <c r="H406"/>
-      <c r="I406"/>
-      <c r="J406"/>
+      <c r="G406" t="n">
+        <v>0.3082264034628337</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0.9930909090909091</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0.7614678899082569</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.19946824955172202</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="s">
@@ -9890,10 +11334,18 @@
       <c r="F408" t="n">
         <v>100.0</v>
       </c>
-      <c r="G408"/>
-      <c r="H408"/>
-      <c r="I408"/>
-      <c r="J408"/>
+      <c r="G408" t="n">
+        <v>0.18834604249226497</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0.997037037037037</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0.7415730337078652</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.19694972698173602</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="s">
@@ -9938,10 +11390,18 @@
       <c r="F410" t="n">
         <v>100.0</v>
       </c>
-      <c r="G410"/>
-      <c r="H410"/>
-      <c r="I410"/>
-      <c r="J410"/>
+      <c r="G410" t="n">
+        <v>0.29377780709408374</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0.9936965876719801</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0.7492354740061162</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.22710690657268287</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="s">
@@ -9986,10 +11446,18 @@
       <c r="F412" t="n">
         <v>100.0</v>
       </c>
-      <c r="G412"/>
-      <c r="H412"/>
-      <c r="I412"/>
-      <c r="J412"/>
+      <c r="G412" t="n">
+        <v>0.17062041726884594</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0.9977777777777778</v>
+      </c>
+      <c r="I412" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.23832831325301204</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="s">
@@ -10034,10 +11502,18 @@
       <c r="F414" t="n">
         <v>100.0</v>
       </c>
-      <c r="G414"/>
-      <c r="H414"/>
-      <c r="I414"/>
-      <c r="J414"/>
+      <c r="G414" t="n">
+        <v>0.2549288625454323</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0.992786129970902</v>
+      </c>
+      <c r="I414" t="n">
+        <v>0.7799442896935933</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.3155938293786011</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="s">
@@ -10082,10 +11558,18 @@
       <c r="F416" t="n">
         <v>100.0</v>
       </c>
-      <c r="G416"/>
-      <c r="H416"/>
-      <c r="I416"/>
-      <c r="J416"/>
+      <c r="G416" t="n">
+        <v>0.1488609873082819</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0.9981478051491017</v>
+      </c>
+      <c r="I416" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.34319080806178187</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="s">
@@ -10130,10 +11614,18 @@
       <c r="F418" t="n">
         <v>100.0</v>
       </c>
-      <c r="G418"/>
-      <c r="H418"/>
-      <c r="I418"/>
-      <c r="J418"/>
+      <c r="G418" t="n">
+        <v>0.21440384287776493</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0.9914891011511143</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0.7724719101123596</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.45571110009910804</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="s">
@@ -10178,10 +11670,18 @@
       <c r="F420" t="n">
         <v>100.0</v>
       </c>
-      <c r="G420"/>
-      <c r="H420"/>
-      <c r="I420"/>
-      <c r="J420"/>
+      <c r="G420" t="n">
+        <v>0.13380330175603525</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0.9971983563690698</v>
+      </c>
+      <c r="I420" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.45976796407185627</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="s">
@@ -10226,10 +11726,18 @@
       <c r="F422" t="n">
         <v>100.0</v>
       </c>
-      <c r="G422"/>
-      <c r="H422"/>
-      <c r="I422"/>
-      <c r="J422"/>
+      <c r="G422" t="n">
+        <v>0.40560786493606965</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0.990909090909091</v>
+      </c>
+      <c r="I422" t="n">
+        <v>0.8728139904610492</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.16407283725033078</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="s">
@@ -10274,10 +11782,18 @@
       <c r="F424" t="n">
         <v>100.0</v>
       </c>
-      <c r="G424"/>
-      <c r="H424"/>
-      <c r="I424"/>
-      <c r="J424"/>
+      <c r="G424" t="n">
+        <v>0.2604255209656344</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0.9911111111111112</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0.6766917293233082</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.14828175431934687</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="s">
@@ -10322,10 +11838,18 @@
       <c r="F426" t="n">
         <v>100.0</v>
       </c>
-      <c r="G426"/>
-      <c r="H426"/>
-      <c r="I426"/>
-      <c r="J426"/>
+      <c r="G426" t="n">
+        <v>0.38850345374385714</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0.9907878787878788</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0.8729903536977492</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.20311122307595414</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="s">
@@ -10370,10 +11894,18 @@
       <c r="F428" t="n">
         <v>100.0</v>
       </c>
-      <c r="G428"/>
-      <c r="H428"/>
-      <c r="I428"/>
-      <c r="J428"/>
+      <c r="G428" t="n">
+        <v>0.23331913816373856</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0.9933333333333333</v>
+      </c>
+      <c r="I428" t="n">
+        <v>0.7422680412371134</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.19686969639826513</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="s">
@@ -10418,10 +11950,18 @@
       <c r="F430" t="n">
         <v>100.0</v>
       </c>
-      <c r="G430"/>
-      <c r="H430"/>
-      <c r="I430"/>
-      <c r="J430"/>
+      <c r="G430" t="n">
+        <v>0.37208695057062624</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0.991635856718589</v>
+      </c>
+      <c r="I430" t="n">
+        <v>0.8651685393258427</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.231214965043774</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="s">
@@ -10466,10 +12006,18 @@
       <c r="F432" t="n">
         <v>100.0</v>
       </c>
-      <c r="G432"/>
-      <c r="H432"/>
-      <c r="I432"/>
-      <c r="J432"/>
+      <c r="G432" t="n">
+        <v>0.21091180649573163</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0.9937037037037038</v>
+      </c>
+      <c r="I432" t="n">
+        <v>0.7578947368421053</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.23845428840716307</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="s">
@@ -10514,10 +12062,18 @@
       <c r="F434" t="n">
         <v>100.0</v>
       </c>
-      <c r="G434"/>
-      <c r="H434"/>
-      <c r="I434"/>
-      <c r="J434"/>
+      <c r="G434" t="n">
+        <v>0.32391883216329515</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0.9903612997090203</v>
+      </c>
+      <c r="I434" t="n">
+        <v>0.8360323886639676</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.3181307009871298</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="s">
@@ -10562,10 +12118,18 @@
       <c r="F436" t="n">
         <v>100.0</v>
       </c>
-      <c r="G436"/>
-      <c r="H436"/>
-      <c r="I436"/>
-      <c r="J436"/>
+      <c r="G436" t="n">
+        <v>0.18552923205002034</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0.9953695128727542</v>
+      </c>
+      <c r="I436" t="n">
+        <v>0.865979381443299</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.3435791061663209</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="s">
@@ -10610,10 +12174,18 @@
       <c r="F438" t="n">
         <v>100.0</v>
       </c>
-      <c r="G438"/>
-      <c r="H438"/>
-      <c r="I438"/>
-      <c r="J438"/>
+      <c r="G438" t="n">
+        <v>0.26538455765588087</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0.9895916243188636</v>
+      </c>
+      <c r="I438" t="n">
+        <v>0.7816711590296496</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.45613491226982456</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="s">
@@ -10658,10 +12230,18 @@
       <c r="F440" t="n">
         <v>100.0</v>
       </c>
-      <c r="G440"/>
-      <c r="H440"/>
-      <c r="I440"/>
-      <c r="J440"/>
+      <c r="G440" t="n">
+        <v>0.1618993993993994</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0.9955173701905118</v>
+      </c>
+      <c r="I440" t="n">
+        <v>0.6984126984126984</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.4601836237586659</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="s">
@@ -10706,10 +12286,18 @@
       <c r="F442" t="n">
         <v>100.0</v>
       </c>
-      <c r="G442"/>
-      <c r="H442"/>
-      <c r="I442"/>
-      <c r="J442"/>
+      <c r="G442" t="n">
+        <v>0.42043355453781783</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0.9903030303030304</v>
+      </c>
+      <c r="I442" t="n">
+        <v>0.9027946537059538</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.16610320852203866</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="s">
@@ -10754,10 +12342,18 @@
       <c r="F444" t="n">
         <v>100.0</v>
       </c>
-      <c r="G444"/>
-      <c r="H444"/>
-      <c r="I444"/>
-      <c r="J444"/>
+      <c r="G444" t="n">
+        <v>0.26982042985315746</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0.9907407407407407</v>
+      </c>
+      <c r="I444" t="n">
+        <v>0.674074074074074</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.14814814814814814</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="s">
@@ -10802,10 +12398,18 @@
       <c r="F446" t="n">
         <v>100.0</v>
       </c>
-      <c r="G446"/>
-      <c r="H446"/>
-      <c r="I446"/>
-      <c r="J446"/>
+      <c r="G446" t="n">
+        <v>0.4028952815840729</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0.9900606060606061</v>
+      </c>
+      <c r="I446" t="n">
+        <v>0.8910081743869209</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.20449067613852595</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
@@ -10850,10 +12454,18 @@
       <c r="F448" t="n">
         <v>100.0</v>
       </c>
-      <c r="G448"/>
-      <c r="H448"/>
-      <c r="I448"/>
-      <c r="J448"/>
+      <c r="G448" t="n">
+        <v>0.2422430605367493</v>
+      </c>
+      <c r="H448" t="n">
+        <v>0.9929629629629629</v>
+      </c>
+      <c r="I448" t="n">
+        <v>0.7614678899082569</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.19712719712719712</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="s">
@@ -10898,10 +12510,18 @@
       <c r="F450" t="n">
         <v>100.0</v>
       </c>
-      <c r="G450"/>
-      <c r="H450"/>
-      <c r="I450"/>
-      <c r="J450"/>
+      <c r="G450" t="n">
+        <v>0.38648546018447455</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0.9907267107097399</v>
+      </c>
+      <c r="I450" t="n">
+        <v>0.8852459016393442</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.2328132927447996</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="s">
@@ -10946,10 +12566,18 @@
       <c r="F452" t="n">
         <v>100.0</v>
       </c>
-      <c r="G452"/>
-      <c r="H452"/>
-      <c r="I452"/>
-      <c r="J452"/>
+      <c r="G452" t="n">
+        <v>0.21904947807817232</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0.9935185185185185</v>
+      </c>
+      <c r="I452" t="n">
+        <v>0.7830188679245284</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.23894975443898753</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="s">
@@ -10994,10 +12622,18 @@
       <c r="F454" t="n">
         <v>100.0</v>
       </c>
-      <c r="G454"/>
-      <c r="H454"/>
-      <c r="I454"/>
-      <c r="J454"/>
+      <c r="G454" t="n">
+        <v>0.3366514158624042</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0.9896338506304558</v>
+      </c>
+      <c r="I454" t="n">
+        <v>0.848314606741573</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.31892772140799197</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="s">
@@ -11042,10 +12678,18 @@
       <c r="F456" t="n">
         <v>100.0</v>
       </c>
-      <c r="G456"/>
-      <c r="H456"/>
-      <c r="I456"/>
-      <c r="J456"/>
+      <c r="G456" t="n">
+        <v>0.19229737511602363</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0.9949990739025746</v>
+      </c>
+      <c r="I456" t="n">
+        <v>0.865979381443299</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.3435791061663209</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="s">
@@ -11090,10 +12734,18 @@
       <c r="F458" t="n">
         <v>100.0</v>
       </c>
-      <c r="G458"/>
-      <c r="H458"/>
-      <c r="I458"/>
-      <c r="J458"/>
+      <c r="G458" t="n">
+        <v>0.276285795408453</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0.9889188196400147</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0.7933673469387755</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.4567295753662776</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="s">
@@ -11138,10 +12790,18 @@
       <c r="F460" t="n">
         <v>100.0</v>
       </c>
-      <c r="G460"/>
-      <c r="H460"/>
-      <c r="I460"/>
-      <c r="J460"/>
+      <c r="G460" t="n">
+        <v>0.16968663409268778</v>
+      </c>
+      <c r="H460" t="n">
+        <v>0.9951438177063877</v>
+      </c>
+      <c r="I460" t="n">
+        <v>0.6984126984126984</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.4601836237586659</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="s">
@@ -11186,10 +12846,18 @@
       <c r="F462" t="n">
         <v>100.0</v>
       </c>
-      <c r="G462"/>
-      <c r="H462"/>
-      <c r="I462"/>
-      <c r="J462"/>
+      <c r="G462" t="n">
+        <v>0.4331372428258006</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0.989030303030303</v>
+      </c>
+      <c r="I462" t="n">
+        <v>0.9038238702201622</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.16633625375711453</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="s">
@@ -11234,10 +12902,18 @@
       <c r="F464" t="n">
         <v>100.0</v>
       </c>
-      <c r="G464"/>
-      <c r="H464"/>
-      <c r="I464"/>
-      <c r="J464"/>
+      <c r="G464" t="n">
+        <v>0.2781125908828583</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0.9903703703703703</v>
+      </c>
+      <c r="I464" t="n">
+        <v>0.674074074074074</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.14814814814814814</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="s">
@@ -11282,10 +12958,18 @@
       <c r="F466" t="n">
         <v>100.0</v>
       </c>
-      <c r="G466"/>
-      <c r="H466"/>
-      <c r="I466"/>
-      <c r="J466"/>
+      <c r="G466" t="n">
+        <v>0.4158413194324996</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0.9893333333333333</v>
+      </c>
+      <c r="I466" t="n">
+        <v>0.9045936395759717</v>
+      </c>
+      <c r="J466" t="n">
+        <v>0.20592933358890805</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="s">
@@ -11330,10 +13014,18 @@
       <c r="F468" t="n">
         <v>100.0</v>
       </c>
-      <c r="G468"/>
-      <c r="H468"/>
-      <c r="I468"/>
-      <c r="J468"/>
+      <c r="G468" t="n">
+        <v>0.25028284656210725</v>
+      </c>
+      <c r="H468" t="n">
+        <v>0.9929629629629629</v>
+      </c>
+      <c r="I468" t="n">
+        <v>0.7636363636363637</v>
+      </c>
+      <c r="J468" t="n">
+        <v>0.19716446124763706</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="s">
@@ -11378,10 +13070,18 @@
       <c r="F470" t="n">
         <v>100.0</v>
       </c>
-      <c r="G470"/>
-      <c r="H470"/>
-      <c r="I470"/>
-      <c r="J470"/>
+      <c r="G470" t="n">
+        <v>0.3996774349630434</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0.9902418328383539</v>
+      </c>
+      <c r="I470" t="n">
+        <v>0.8884462151394422</v>
+      </c>
+      <c r="J470" t="n">
+        <v>0.23312376960690925</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="s">
@@ -11426,10 +13126,18 @@
       <c r="F472" t="n">
         <v>100.0</v>
       </c>
-      <c r="G472"/>
-      <c r="H472"/>
-      <c r="I472"/>
-      <c r="J472"/>
+      <c r="G472" t="n">
+        <v>0.22643377394256317</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0.9933333333333333</v>
+      </c>
+      <c r="I472" t="n">
+        <v>0.7850467289719626</v>
+      </c>
+      <c r="J472" t="n">
+        <v>0.238994898923106</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="s">
@@ -11474,10 +13182,18 @@
       <c r="F474" t="n">
         <v>100.0</v>
       </c>
-      <c r="G474"/>
-      <c r="H474"/>
-      <c r="I474"/>
-      <c r="J474"/>
+      <c r="G474" t="n">
+        <v>0.3485555375752473</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0.9890276430649855</v>
+      </c>
+      <c r="I474" t="n">
+        <v>0.8545780969479354</v>
+      </c>
+      <c r="J474" t="n">
+        <v>0.3193878191055636</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
@@ -11522,10 +13238,18 @@
       <c r="F476" t="n">
         <v>100.0</v>
       </c>
-      <c r="G476"/>
-      <c r="H476"/>
-      <c r="I476"/>
-      <c r="J476"/>
+      <c r="G476" t="n">
+        <v>0.19879536309658744</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0.9948138544174847</v>
+      </c>
+      <c r="I476" t="n">
+        <v>0.865979381443299</v>
+      </c>
+      <c r="J476" t="n">
+        <v>0.3435791061663209</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="s">
@@ -11570,10 +13294,18 @@
       <c r="F478" t="n">
         <v>100.0</v>
       </c>
-      <c r="G478"/>
-      <c r="H478"/>
-      <c r="I478"/>
-      <c r="J478"/>
+      <c r="G478" t="n">
+        <v>0.28407056677890014</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0.9878168238031101</v>
+      </c>
+      <c r="I478" t="n">
+        <v>0.8272921108742004</v>
+      </c>
+      <c r="J478" t="n">
+        <v>0.45892333603642943</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="s">
@@ -11618,10 +13350,18 @@
       <c r="F480" t="n">
         <v>100.0</v>
       </c>
-      <c r="G480"/>
-      <c r="H480"/>
-      <c r="I480"/>
-      <c r="J480"/>
+      <c r="G480" t="n">
+        <v>0.17623815266141998</v>
+      </c>
+      <c r="H480" t="n">
+        <v>0.9947702652222637</v>
+      </c>
+      <c r="I480" t="n">
+        <v>0.6984126984126984</v>
+      </c>
+      <c r="J480" t="n">
+        <v>0.4601836237586659</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="s">
@@ -11666,10 +13406,18 @@
       <c r="F482" t="n">
         <v>100.0</v>
       </c>
-      <c r="G482"/>
-      <c r="H482"/>
-      <c r="I482"/>
-      <c r="J482"/>
+      <c r="G482" t="n">
+        <v>0.4450039892767331</v>
+      </c>
+      <c r="H482" t="n">
+        <v>0.9882424242424243</v>
+      </c>
+      <c r="I482" t="n">
+        <v>0.905829596412556</v>
+      </c>
+      <c r="J482" t="n">
+        <v>0.16658124038954383</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="s">
@@ -11714,10 +13462,18 @@
       <c r="F484" t="n">
         <v>100.0</v>
       </c>
-      <c r="G484"/>
-      <c r="H484"/>
-      <c r="I484"/>
-      <c r="J484"/>
+      <c r="G484" t="n">
+        <v>0.2857312479486671</v>
+      </c>
+      <c r="H484" t="n">
+        <v>0.9901851851851852</v>
+      </c>
+      <c r="I484" t="n">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="J484" t="n">
+        <v>0.14817629179331307</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="s">
@@ -11762,10 +13518,18 @@
       <c r="F486" t="n">
         <v>100.0</v>
       </c>
-      <c r="G486"/>
-      <c r="H486"/>
-      <c r="I486"/>
-      <c r="J486"/>
+      <c r="G486" t="n">
+        <v>0.42759241616892735</v>
+      </c>
+      <c r="H486" t="n">
+        <v>0.9885454545454545</v>
+      </c>
+      <c r="I486" t="n">
+        <v>0.9080590238365494</v>
+      </c>
+      <c r="J486" t="n">
+        <v>0.2063512388757283</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="s">
@@ -11810,10 +13574,18 @@
       <c r="F488" t="n">
         <v>100.0</v>
       </c>
-      <c r="G488"/>
-      <c r="H488"/>
-      <c r="I488"/>
-      <c r="J488"/>
+      <c r="G488" t="n">
+        <v>0.25744938405756174</v>
+      </c>
+      <c r="H488" t="n">
+        <v>0.9929629629629629</v>
+      </c>
+      <c r="I488" t="n">
+        <v>0.7657657657657657</v>
+      </c>
+      <c r="J488" t="n">
+        <v>0.19720173945925507</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="s">
@@ -11858,10 +13630,18 @@
       <c r="F490" t="n">
         <v>100.0</v>
       </c>
-      <c r="G490"/>
-      <c r="H490"/>
-      <c r="I490"/>
-      <c r="J490"/>
+      <c r="G490" t="n">
+        <v>0.41129959745168215</v>
+      </c>
+      <c r="H490" t="n">
+        <v>0.989817564700891</v>
+      </c>
+      <c r="I490" t="n">
+        <v>0.9038901601830663</v>
+      </c>
+      <c r="J490" t="n">
+        <v>0.23492896454626905</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="s">
@@ -11906,10 +13686,18 @@
       <c r="F492" t="n">
         <v>100.0</v>
       </c>
-      <c r="G492"/>
-      <c r="H492"/>
-      <c r="I492"/>
-      <c r="J492"/>
+      <c r="G492" t="n">
+        <v>0.2329256162547915</v>
+      </c>
+      <c r="H492" t="n">
+        <v>0.9933333333333333</v>
+      </c>
+      <c r="I492" t="n">
+        <v>0.7870370370370371</v>
+      </c>
+      <c r="J492" t="n">
+        <v>0.2390400604686319</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="s">
@@ -11954,10 +13742,18 @@
       <c r="F494" t="n">
         <v>100.0</v>
       </c>
-      <c r="G494"/>
-      <c r="H494"/>
-      <c r="I494"/>
-      <c r="J494"/>
+      <c r="G494" t="n">
+        <v>0.35851534077007424</v>
+      </c>
+      <c r="H494" t="n">
+        <v>0.9887851600387972</v>
+      </c>
+      <c r="I494" t="n">
+        <v>0.8772727272727273</v>
+      </c>
+      <c r="J494" t="n">
+        <v>0.32146464646464645</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="s">
@@ -12002,10 +13798,18 @@
       <c r="F496" t="n">
         <v>100.0</v>
       </c>
-      <c r="G496"/>
-      <c r="H496"/>
-      <c r="I496"/>
-      <c r="J496"/>
+      <c r="G496" t="n">
+        <v>0.204365151562864</v>
+      </c>
+      <c r="H496" t="n">
+        <v>0.9948138544174847</v>
+      </c>
+      <c r="I496" t="n">
+        <v>0.865979381443299</v>
+      </c>
+      <c r="J496" t="n">
+        <v>0.3435791061663209</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="s">
@@ -12050,10 +13854,18 @@
       <c r="F498" t="n">
         <v>100.0</v>
       </c>
-      <c r="G498"/>
-      <c r="H498"/>
-      <c r="I498"/>
-      <c r="J498"/>
+      <c r="G498" t="n">
+        <v>0.29131848583819026</v>
+      </c>
+      <c r="H498" t="n">
+        <v>0.9868372719480838</v>
+      </c>
+      <c r="I498" t="n">
+        <v>0.8427184466019417</v>
+      </c>
+      <c r="J498" t="n">
+        <v>0.46024397873005946</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="s">
@@ -12098,10 +13910,18 @@
       <c r="F500" t="n">
         <v>100.0</v>
       </c>
-      <c r="G500"/>
-      <c r="H500"/>
-      <c r="I500"/>
-      <c r="J500"/>
+      <c r="G500" t="n">
+        <v>0.18062955404383976</v>
+      </c>
+      <c r="H500" t="n">
+        <v>0.9945834889802018</v>
+      </c>
+      <c r="I500" t="n">
+        <v>0.6984126984126984</v>
+      </c>
+      <c r="J500" t="n">
+        <v>0.4601836237586659</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="s">
@@ -12146,10 +13966,18 @@
       <c r="F502" t="n">
         <v>100.0</v>
       </c>
-      <c r="G502"/>
-      <c r="H502"/>
-      <c r="I502"/>
-      <c r="J502"/>
+      <c r="G502" t="n">
+        <v>0.4562276081532975</v>
+      </c>
+      <c r="H502" t="n">
+        <v>0.9878787878787879</v>
+      </c>
+      <c r="I502" t="n">
+        <v>0.9079497907949791</v>
+      </c>
+      <c r="J502" t="n">
+        <v>0.1670097786927432</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="s">
@@ -12194,10 +14022,18 @@
       <c r="F504" t="n">
         <v>100.0</v>
       </c>
-      <c r="G504"/>
-      <c r="H504"/>
-      <c r="I504"/>
-      <c r="J504"/>
+      <c r="G504" t="n">
+        <v>0.29293191666524554</v>
+      </c>
+      <c r="H504" t="n">
+        <v>0.9901851851851852</v>
+      </c>
+      <c r="I504" t="n">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="J504" t="n">
+        <v>0.14817629179331307</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="s">
@@ -12242,10 +14078,18 @@
       <c r="F506" t="n">
         <v>100.0</v>
       </c>
-      <c r="G506"/>
-      <c r="H506"/>
-      <c r="I506"/>
-      <c r="J506"/>
+      <c r="G506" t="n">
+        <v>0.4387005067393998</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0.9875757575757576</v>
+      </c>
+      <c r="I506" t="n">
+        <v>0.9124472573839663</v>
+      </c>
+      <c r="J506" t="n">
+        <v>0.2071116255144033</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="s">
@@ -12290,10 +14134,18 @@
       <c r="F508" t="n">
         <v>100.0</v>
       </c>
-      <c r="G508"/>
-      <c r="H508"/>
-      <c r="I508"/>
-      <c r="J508"/>
+      <c r="G508" t="n">
+        <v>0.26406948857665785</v>
+      </c>
+      <c r="H508" t="n">
+        <v>0.9927777777777778</v>
+      </c>
+      <c r="I508" t="n">
+        <v>0.7657657657657657</v>
+      </c>
+      <c r="J508" t="n">
+        <v>0.19720173945925507</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="s">
@@ -12338,10 +14190,18 @@
       <c r="F510" t="n">
         <v>100.0</v>
       </c>
-      <c r="G510"/>
-      <c r="H510"/>
-      <c r="I510"/>
-      <c r="J510"/>
+      <c r="G510" t="n">
+        <v>0.4220400232318834</v>
+      </c>
+      <c r="H510" t="n">
+        <v>0.9889690284259652</v>
+      </c>
+      <c r="I510" t="n">
+        <v>0.91005291005291</v>
+      </c>
+      <c r="J510" t="n">
+        <v>0.23593699774991964</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="s">
@@ -12386,10 +14246,18 @@
       <c r="F512" t="n">
         <v>100.0</v>
       </c>
-      <c r="G512"/>
-      <c r="H512"/>
-      <c r="I512"/>
-      <c r="J512"/>
+      <c r="G512" t="n">
+        <v>0.23899131940510424</v>
+      </c>
+      <c r="H512" t="n">
+        <v>0.9933333333333333</v>
+      </c>
+      <c r="I512" t="n">
+        <v>0.7870370370370371</v>
+      </c>
+      <c r="J512" t="n">
+        <v>0.2390400604686319</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="s">
@@ -12434,10 +14302,18 @@
       <c r="F514" t="n">
         <v>100.0</v>
       </c>
-      <c r="G514"/>
-      <c r="H514"/>
-      <c r="I514"/>
-      <c r="J514"/>
+      <c r="G514" t="n">
+        <v>0.36895178321092914</v>
+      </c>
+      <c r="H514" t="n">
+        <v>0.9883615202764139</v>
+      </c>
+      <c r="I514" t="n">
+        <v>0.8848314606741573</v>
+      </c>
+      <c r="J514" t="n">
+        <v>0.3224600962756524</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="s">
@@ -12482,10 +14358,18 @@
       <c r="F516" t="n">
         <v>100.0</v>
       </c>
-      <c r="G516"/>
-      <c r="H516"/>
-      <c r="I516"/>
-      <c r="J516"/>
+      <c r="G516" t="n">
+        <v>0.20994482736804881</v>
+      </c>
+      <c r="H516" t="n">
+        <v>0.9948138544174847</v>
+      </c>
+      <c r="I516" t="n">
+        <v>0.865979381443299</v>
+      </c>
+      <c r="J516" t="n">
+        <v>0.3435791061663209</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="s">
@@ -12530,10 +14414,18 @@
       <c r="F518" t="n">
         <v>100.0</v>
       </c>
-      <c r="G518"/>
-      <c r="H518"/>
-      <c r="I518"/>
-      <c r="J518"/>
+      <c r="G518" t="n">
+        <v>0.2972152476088115</v>
+      </c>
+      <c r="H518" t="n">
+        <v>0.9865923839843271</v>
+      </c>
+      <c r="I518" t="n">
+        <v>0.849721706864564</v>
+      </c>
+      <c r="J518" t="n">
+        <v>0.4609360315769689</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="s">
@@ -12578,10 +14470,18 @@
       <c r="F520" t="n">
         <v>100.0</v>
       </c>
-      <c r="G520"/>
-      <c r="H520"/>
-      <c r="I520"/>
-      <c r="J520"/>
+      <c r="G520" t="n">
+        <v>0.18447866761033682</v>
+      </c>
+      <c r="H520" t="n">
+        <v>0.9943967127381397</v>
+      </c>
+      <c r="I520" t="n">
+        <v>0.6984126984126984</v>
+      </c>
+      <c r="J520" t="n">
+        <v>0.4601836237586659</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="s">
@@ -12626,10 +14526,18 @@
       <c r="F522" t="n">
         <v>100.0</v>
       </c>
-      <c r="G522"/>
-      <c r="H522"/>
-      <c r="I522"/>
-      <c r="J522"/>
+      <c r="G522" t="n">
+        <v>0.4764946374518031</v>
+      </c>
+      <c r="H522" t="n">
+        <v>0.9864848484848485</v>
+      </c>
+      <c r="I522" t="n">
+        <v>0.9097744360902256</v>
+      </c>
+      <c r="J522" t="n">
+        <v>0.16766001554806945</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
@@ -12674,10 +14582,18 @@
       <c r="F524" t="n">
         <v>100.0</v>
       </c>
-      <c r="G524"/>
-      <c r="H524"/>
-      <c r="I524"/>
-      <c r="J524"/>
+      <c r="G524" t="n">
+        <v>0.306305936683704</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0.9901851851851852</v>
+      </c>
+      <c r="I524" t="n">
+        <v>0.6811594202898551</v>
+      </c>
+      <c r="J524" t="n">
+        <v>0.14823261117445838</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
@@ -12722,10 +14638,18 @@
       <c r="F526" t="n">
         <v>100.0</v>
       </c>
-      <c r="G526"/>
-      <c r="H526"/>
-      <c r="I526"/>
-      <c r="J526"/>
+      <c r="G526" t="n">
+        <v>0.4589302619632604</v>
+      </c>
+      <c r="H526" t="n">
+        <v>0.9865454545454545</v>
+      </c>
+      <c r="I526" t="n">
+        <v>0.917228103946102</v>
+      </c>
+      <c r="J526" t="n">
+        <v>0.20813660177220103</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
@@ -12770,10 +14694,18 @@
       <c r="F528" t="n">
         <v>100.0</v>
       </c>
-      <c r="G528"/>
-      <c r="H528"/>
-      <c r="I528"/>
-      <c r="J528"/>
+      <c r="G528" t="n">
+        <v>0.2762218203237178</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0.9927777777777778</v>
+      </c>
+      <c r="I528" t="n">
+        <v>0.7657657657657657</v>
+      </c>
+      <c r="J528" t="n">
+        <v>0.19720173945925507</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
@@ -12818,10 +14750,18 @@
       <c r="F530" t="n">
         <v>100.0</v>
       </c>
-      <c r="G530"/>
-      <c r="H530"/>
-      <c r="I530"/>
-      <c r="J530"/>
+      <c r="G530" t="n">
+        <v>0.4418373987453636</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0.9879386629492697</v>
+      </c>
+      <c r="I530" t="n">
+        <v>0.9148936170212766</v>
+      </c>
+      <c r="J530" t="n">
+        <v>0.2371007371007371</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="s">
@@ -12866,10 +14806,18 @@
       <c r="F532" t="n">
         <v>100.0</v>
       </c>
-      <c r="G532"/>
-      <c r="H532"/>
-      <c r="I532"/>
-      <c r="J532"/>
+      <c r="G532" t="n">
+        <v>0.2501785825731892</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0.9933333333333333</v>
+      </c>
+      <c r="I532" t="n">
+        <v>0.7870370370370371</v>
+      </c>
+      <c r="J532" t="n">
+        <v>0.2390400604686319</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="s">
@@ -12914,10 +14862,18 @@
       <c r="F534" t="n">
         <v>100.0</v>
       </c>
-      <c r="G534"/>
-      <c r="H534"/>
-      <c r="I534"/>
-      <c r="J534"/>
+      <c r="G534" t="n">
+        <v>0.38701532162120006</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0.9874522640480087</v>
+      </c>
+      <c r="I534" t="n">
+        <v>0.8922686945500634</v>
+      </c>
+      <c r="J534" t="n">
+        <v>0.3238495321749093</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="s">
@@ -12962,10 +14918,18 @@
       <c r="F536" t="n">
         <v>100.0</v>
       </c>
-      <c r="G536"/>
-      <c r="H536"/>
-      <c r="I536"/>
-      <c r="J536"/>
+      <c r="G536" t="n">
+        <v>0.21974406760882423</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0.9944434154473051</v>
+      </c>
+      <c r="I536" t="n">
+        <v>0.865979381443299</v>
+      </c>
+      <c r="J536" t="n">
+        <v>0.3435791061663209</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="s">
@@ -13010,10 +14974,18 @@
       <c r="F538" t="n">
         <v>100.0</v>
       </c>
-      <c r="G538"/>
-      <c r="H538"/>
-      <c r="I538"/>
-      <c r="J538"/>
+      <c r="G538" t="n">
+        <v>0.310897847614223</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0.9859189420839966</v>
+      </c>
+      <c r="I538" t="n">
+        <v>0.8622448979591837</v>
+      </c>
+      <c r="J538" t="n">
+        <v>0.46235545500251385</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="s">
@@ -13058,10 +15030,18 @@
       <c r="F540" t="n">
         <v>100.0</v>
       </c>
-      <c r="G540"/>
-      <c r="H540"/>
-      <c r="I540"/>
-      <c r="J540"/>
+      <c r="G540" t="n">
+        <v>0.19060067136440134</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0.9938363840119537</v>
+      </c>
+      <c r="I540" t="n">
+        <v>0.6984126984126984</v>
+      </c>
+      <c r="J540" t="n">
+        <v>0.4601836237586659</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary AR1_logistic_lm.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary AR1_logistic_lm.xlsx
@@ -178,10 +178,18 @@
       <c r="F3" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="G3" t="n">
+        <v>0.08710248095141708</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9541292002610107</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2476489028213166</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9280425162882746</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -232,10 +240,18 @@
       <c r="F5" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
+      <c r="G5" t="n">
+        <v>0.09737047582449118</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.947462962962963</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9426916760307719</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -286,10 +302,18 @@
       <c r="F7" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
+      <c r="G7" t="n">
+        <v>0.08259763795254982</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9539730495965939</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2791666666666667</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9435605141886976</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -340,10 +364,18 @@
       <c r="F9" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
+      <c r="G9" t="n">
+        <v>0.09508098039357694</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9471767862220739</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.9540689706263659</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -394,10 +426,18 @@
       <c r="F11" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
+      <c r="G11" t="n">
+        <v>0.0800719310052286</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9540062058825919</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.2815126050420168</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9532684401793186</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -448,10 +488,18 @@
       <c r="F13" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
+      <c r="G13" t="n">
+        <v>0.0932107191728826</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9474934413317042</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9616935110474556</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -502,10 +550,18 @@
       <c r="F15" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
+      <c r="G15" t="n">
+        <v>0.07750683551100288</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9541046635813457</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.27155172413793105</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.971329997089545</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -556,10 +612,18 @@
       <c r="F17" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
+      <c r="G17" t="n">
+        <v>0.09081549523433789</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9475362156720174</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.977639628849941</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -610,10 +674,18 @@
       <c r="F19" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
+      <c r="G19" t="n">
+        <v>0.07035186632960923</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9545049337554947</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.3828125</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.9766080925976818</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -664,10 +736,18 @@
       <c r="F21" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
+      <c r="G21" t="n">
+        <v>0.08214989559671534</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9483191514673379</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.979696152207866</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -720,10 +800,18 @@
       <c r="F23" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
+      <c r="G23" t="n">
+        <v>0.09275396084011442</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9534362695682214</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.25308641975308643</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.9280478535445423</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -774,10 +862,18 @@
       <c r="F25" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
+      <c r="G25" t="n">
+        <v>0.10123075490926739</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.94269096836334</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -828,10 +924,18 @@
       <c r="F27" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
+      <c r="G27" t="n">
+        <v>0.08781367951155597</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9532150488894645</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.2880658436213992</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9435662355459347</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -882,10 +986,18 @@
       <c r="F29" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
+      <c r="G29" t="n">
+        <v>0.09876352276981558</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.9463490925275704</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9540689706263659</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -936,10 +1048,18 @@
       <c r="F31" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
+      <c r="G31" t="n">
+        <v>0.08500788622223109</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.9532674980352976</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.28451882845188287</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.9532703669044246</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -990,10 +1110,18 @@
       <c r="F33" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
+      <c r="G33" t="n">
+        <v>0.09697580842991914</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.9467557275580198</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.9616935110474556</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -1044,10 +1172,18 @@
       <c r="F35" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
+      <c r="G35" t="n">
+        <v>0.08227104788267879</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.9534561077670121</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.27155172413793105</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.971329997089545</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -1098,10 +1234,18 @@
       <c r="F37" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
+      <c r="G37" t="n">
+        <v>0.09456006037863303</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9466854760025604</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.977639628849941</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -1152,10 +1296,18 @@
       <c r="F39" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
+      <c r="G39" t="n">
+        <v>0.07544811004416013</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.953823202744296</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.3624161073825503</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.9766172039664465</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -1206,10 +1358,18 @@
       <c r="F41" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
+      <c r="G41" t="n">
+        <v>0.08571885533458927</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.9477503537573413</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.979696152207866</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -1262,10 +1422,18 @@
       <c r="F43" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
+      <c r="G43" t="n">
+        <v>0.09946434598512385</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.952511015173768</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.2694610778443114</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.9280625715128996</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -1316,10 +1484,18 @@
       <c r="F45" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
+      <c r="G45" t="n">
+        <v>0.1057186758281277</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.9456728395061729</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.9426906145230701</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -1370,10 +1546,18 @@
       <c r="F47" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
+      <c r="G47" t="n">
+        <v>0.09412713788437756</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.9523874085346111</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.9435793575719356</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -1424,10 +1608,18 @@
       <c r="F49" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
+      <c r="G49" t="n">
+        <v>0.10336120676512821</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.9454180188533456</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.9540689706263659</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -1478,10 +1670,18 @@
       <c r="F51" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
+      <c r="G51" t="n">
+        <v>0.09095208705413511</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.9524064811825173</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.9532875189489641</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -1532,10 +1732,18 @@
       <c r="F53" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
+      <c r="G53" t="n">
+        <v>0.10146014123332013</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.9458012900024808</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.9616935110474556</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -1586,10 +1794,18 @@
       <c r="F55" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
+      <c r="G55" t="n">
+        <v>0.08801898085511523</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.952641043479676</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.29045643153526973</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.9713436238653567</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -1640,10 +1856,18 @@
       <c r="F57" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
+      <c r="G57" t="n">
+        <v>0.09893962388281609</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.9457291116427928</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.977639628849941</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -1694,10 +1918,18 @@
       <c r="F59" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
+      <c r="G59" t="n">
+        <v>0.08092703728323367</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.9529973463930412</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.32967032967032966</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.9766277702104612</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -1748,10 +1980,18 @@
       <c r="F61" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
+      <c r="G61" t="n">
+        <v>0.08981438732124482</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.9470059355355757</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.979696152207866</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -1804,10 +2044,18 @@
       <c r="F63" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
+      <c r="G63" t="n">
+        <v>0.12318505382841717</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.9496201002426268</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.3050847457627119</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.9280960525304965</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -1858,10 +2106,18 @@
       <c r="F65" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
+      <c r="G65" t="n">
+        <v>0.12111956558363553</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.942962962962963</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.9427045384377895</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
@@ -1912,10 +2168,18 @@
       <c r="F67" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
+      <c r="G67" t="n">
+        <v>0.11602044732542253</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.9493989020172853</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.3408239700374532</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.9436059450248923</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
@@ -1966,10 +2230,18 @@
       <c r="F69" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69"/>
+      <c r="G69" t="n">
+        <v>0.11801949888101171</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.9424165636588381</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.9540838061604381</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -2020,10 +2292,18 @@
       <c r="F71" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
+      <c r="G71" t="n">
+        <v>0.11177441398263502</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.9493126572178605</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.3458646616541353</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.9533163275618818</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -2074,10 +2354,18 @@
       <c r="F73" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
+      <c r="G73" t="n">
+        <v>0.11611415658491647</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.9429035598464696</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.9617170232994604</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -2128,10 +2416,18 @@
       <c r="F75" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="J75"/>
+      <c r="G75" t="n">
+        <v>0.10764979454843918</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.949826278702664</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.34099616858237547</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.9713808695089734</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
@@ -2182,10 +2478,18 @@
       <c r="F77" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77"/>
-      <c r="J77"/>
+      <c r="G77" t="n">
+        <v>0.11357577271959333</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.9430886730426244</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.977657735522904</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -2236,10 +2540,18 @@
       <c r="F79" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
-      <c r="J79"/>
+      <c r="G79" t="n">
+        <v>0.10062217536600059</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.9503892963979839</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.31196581196581197</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.9766515888318923</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
@@ -2290,10 +2602,18 @@
       <c r="F81" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
-      <c r="J81"/>
+      <c r="G81" t="n">
+        <v>0.10396448060806861</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.9444914007375268</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.9797142962972109</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -2346,10 +2666,18 @@
       <c r="F83" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
-      <c r="J83"/>
+      <c r="G83" t="n">
+        <v>0.1279597775650662</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.9490564627403287</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.3100558659217877</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.9281015360604234</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
@@ -2400,10 +2728,18 @@
       <c r="F85" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="J85"/>
+      <c r="G85" t="n">
+        <v>0.12414786002219777</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.9424814814814815</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.3137254901960784</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.9427103594341428</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
@@ -2454,10 +2790,18 @@
       <c r="F87" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
-      <c r="J87"/>
+      <c r="G87" t="n">
+        <v>0.12043292179413924</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.9489274129414645</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.34686346863468637</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.9436115529916378</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -2508,10 +2852,18 @@
       <c r="F89" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
-      <c r="J89"/>
+      <c r="G89" t="n">
+        <v>0.12091687912813165</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.9418435771453293</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.9540896967302183</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
@@ -2562,10 +2914,18 @@
       <c r="F91" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91"/>
-      <c r="J91"/>
+      <c r="G91" t="n">
+        <v>0.1160113494343369</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.9488558498748347</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.34944237918215615</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.9533200870776241</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
@@ -2616,10 +2976,18 @@
       <c r="F93" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
-      <c r="J93"/>
+      <c r="G93" t="n">
+        <v>0.11904827368330084</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.9424154864952008</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.9617229606672553</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
@@ -2670,10 +3038,18 @@
       <c r="F95" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
-      <c r="J95"/>
+      <c r="G95" t="n">
+        <v>0.1117343959147383</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.9493666508676893</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.3446969696969697</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.9713847385272145</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
@@ -2724,10 +3100,18 @@
       <c r="F97" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
-      <c r="J97"/>
+      <c r="G97" t="n">
+        <v>0.1165118494814107</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.9426039511052282</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.9776637712296038</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
@@ -2778,10 +3162,18 @@
       <c r="F99" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
-      <c r="J99"/>
+      <c r="G99" t="n">
+        <v>0.10458367980913386</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.9497259586325592</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.3177966101694915</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.9766555367811725</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
@@ -2832,10 +3224,18 @@
       <c r="F101" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101"/>
-      <c r="J101"/>
+      <c r="G101" t="n">
+        <v>0.10681007473913488</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.9439091427033051</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.9797203444763404</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
@@ -2888,10 +3288,18 @@
       <c r="F103" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G103"/>
-      <c r="H103"/>
-      <c r="I103"/>
-      <c r="J103"/>
+      <c r="G103" t="n">
+        <v>0.13236014340367963</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.9486099971919135</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.31767955801104975</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.9281090413595398</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
@@ -2942,10 +3350,18 @@
       <c r="F105" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G105"/>
-      <c r="H105"/>
-      <c r="I105"/>
-      <c r="J105"/>
+      <c r="G105" t="n">
+        <v>0.12680358337857892</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.9419691358024691</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.3137254901960784</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.9427103594341428</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
@@ -2996,10 +3412,18 @@
       <c r="F107" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G107"/>
-      <c r="H107"/>
-      <c r="I107"/>
-      <c r="J107"/>
+      <c r="G107" t="n">
+        <v>0.12447187390975434</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.9484518767491131</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.3516483516483517</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.9436153676674206</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
@@ -3050,10 +3474,18 @@
       <c r="F109" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G109"/>
-      <c r="H109"/>
-      <c r="I109"/>
-      <c r="J109"/>
+      <c r="G109" t="n">
+        <v>0.12352334137208497</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.941376774424799</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.9540896967302183</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
@@ -3104,10 +3536,18 @@
       <c r="F111" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G111"/>
-      <c r="H111"/>
-      <c r="I111"/>
-      <c r="J111"/>
+      <c r="G111" t="n">
+        <v>0.1198715400541175</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.9484518291581142</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.35661764705882354</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.9533258679516825</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
@@ -3158,10 +3598,18 @@
       <c r="F113" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G113"/>
-      <c r="H113"/>
-      <c r="I113"/>
-      <c r="J113"/>
+      <c r="G113" t="n">
+        <v>0.12163829784926074</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.9419825271734076</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.9617229606672553</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
@@ -3212,10 +3660,18 @@
       <c r="F115" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G115"/>
-      <c r="H115"/>
-      <c r="I115"/>
-      <c r="J115"/>
+      <c r="G115" t="n">
+        <v>0.11529730051257674</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.9489498469268401</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.352059925093633</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.9713906288846711</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
@@ -3266,10 +3722,18 @@
       <c r="F117" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G117"/>
-      <c r="H117"/>
-      <c r="I117"/>
-      <c r="J117"/>
+      <c r="G117" t="n">
+        <v>0.11891153442704176</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.9421506605848942</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.9776698070108286</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
@@ -3320,10 +3784,18 @@
       <c r="F119" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G119"/>
-      <c r="H119"/>
-      <c r="I119"/>
-      <c r="J119"/>
+      <c r="G119" t="n">
+        <v>0.10828208436748141</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.9491364985831979</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.31932773109243695</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.9766574635885537</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
@@ -3374,10 +3846,18 @@
       <c r="F121" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G121"/>
-      <c r="H121"/>
-      <c r="I121"/>
-      <c r="J121"/>
+      <c r="G121" t="n">
+        <v>0.10934372402652134</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.9433898474869149</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.9797203444763404</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
@@ -3430,10 +3910,18 @@
       <c r="F123" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G123"/>
-      <c r="H123"/>
-      <c r="I123"/>
-      <c r="J123"/>
+      <c r="G123" t="n">
+        <v>0.13640845046219513</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.9481493902007883</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.3224043715846995</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.9281145250831928</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
@@ -3484,10 +3972,18 @@
       <c r="F125" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G125"/>
-      <c r="H125"/>
-      <c r="I125"/>
-      <c r="J125"/>
+      <c r="G125" t="n">
+        <v>0.1293066183138135</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.9415370370370371</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.3269230769230769</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.9427161805023835</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
@@ -3538,10 +4034,18 @@
       <c r="F127" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G127"/>
-      <c r="H127"/>
-      <c r="I127"/>
-      <c r="J127"/>
+      <c r="G127" t="n">
+        <v>0.1282265262976623</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.948020858838599</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.358695652173913</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.9436210897389251</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
@@ -3592,10 +4096,18 @@
       <c r="F129" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G129"/>
-      <c r="H129"/>
-      <c r="I129"/>
-      <c r="J129"/>
+      <c r="G129" t="n">
+        <v>0.12595485848262705</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.9408972932888394</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.9540955873727365</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
@@ -3646,10 +4158,18 @@
       <c r="F131" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G131"/>
-      <c r="H131"/>
-      <c r="I131"/>
-      <c r="J131"/>
+      <c r="G131" t="n">
+        <v>0.12344224915392316</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.9480376571671042</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.3613138686131387</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.9533297219066715</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
@@ -3700,10 +4220,18 @@
       <c r="F133" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G133"/>
-      <c r="H133"/>
-      <c r="I133"/>
-      <c r="J133"/>
+      <c r="G133" t="n">
+        <v>0.12407382421597327</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.9415981001866331</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.9617288981083617</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
@@ -3754,10 +4282,18 @@
       <c r="F135" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G135"/>
-      <c r="H135"/>
-      <c r="I135"/>
-      <c r="J135"/>
+      <c r="G135" t="n">
+        <v>0.1186574750616133</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.9485308027949837</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.35687732342007433</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.9713945558293294</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
@@ -3808,10 +4344,18 @@
       <c r="F137" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G137"/>
-      <c r="H137"/>
-      <c r="I137"/>
-      <c r="J137"/>
+      <c r="G137" t="n">
+        <v>0.12133952973518182</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.9417156564212829</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.9776758428665798</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
@@ -3862,10 +4406,18 @@
       <c r="F139" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G139"/>
-      <c r="H139"/>
-      <c r="I139"/>
-      <c r="J139"/>
+      <c r="G139" t="n">
+        <v>0.11177026448828525</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.9487455821338934</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.3236514522821577</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.97666136442187</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
@@ -3916,10 +4468,18 @@
       <c r="F141" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G141"/>
-      <c r="H141"/>
-      <c r="I141"/>
-      <c r="J141"/>
+      <c r="G141" t="n">
+        <v>0.11176212555515826</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.9429453306954496</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.9797263927301462</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
@@ -3972,10 +4532,18 @@
       <c r="F143" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G143"/>
-      <c r="H143"/>
-      <c r="I143"/>
-      <c r="J143"/>
+      <c r="G143" t="n">
+        <v>0.14026179872560596</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.9477433287744016</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.33153638814016173</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.9281239070090916</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
@@ -4026,10 +4594,18 @@
       <c r="F145" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G145"/>
-      <c r="H145"/>
-      <c r="I145"/>
-      <c r="J145"/>
+      <c r="G145" t="n">
+        <v>0.13159168908462984</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.9410432098765432</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.32075471698113206</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.9427158267828364</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
@@ -4080,10 +4656,18 @@
       <c r="F147" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G147"/>
-      <c r="H147"/>
-      <c r="I147"/>
-      <c r="J147"/>
+      <c r="G147" t="n">
+        <v>0.13184559772190596</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.9476364887288032</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.36330935251798563</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.9436249044918156</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
@@ -4134,10 +4718,18 @@
       <c r="F149" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G149"/>
-      <c r="H149"/>
-      <c r="I149"/>
-      <c r="J149"/>
+      <c r="G149" t="n">
+        <v>0.1282930176995607</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.9404171172562954</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.9540955873727365</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
@@ -4188,10 +4780,18 @@
       <c r="F151" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G151"/>
-      <c r="H151"/>
-      <c r="I151"/>
-      <c r="J151"/>
+      <c r="G151" t="n">
+        <v>0.12681336641957083</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.9476215612628159</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.36594202898550726</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.9533335758928211</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
@@ -4242,10 +4842,18 @@
       <c r="F153" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G153"/>
-      <c r="H153"/>
-      <c r="I153"/>
-      <c r="J153"/>
+      <c r="G153" t="n">
+        <v>0.12642594248739134</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.9412384749409408</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.9617288981083617</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
@@ -4296,10 +4904,18 @@
       <c r="F155" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G155"/>
-      <c r="H155"/>
-      <c r="I155"/>
-      <c r="J155"/>
+      <c r="G155" t="n">
+        <v>0.1217854206973467</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.9479430263875215</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.36162361623616235</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.971398482805738</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
@@ -4350,10 +4966,18 @@
       <c r="F157" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G157"/>
-      <c r="H157"/>
-      <c r="I157"/>
-      <c r="J157"/>
+      <c r="G157" t="n">
+        <v>0.12351456896720356</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.9413614387451994</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.9776758428665798</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
@@ -4404,10 +5028,18 @@
       <c r="F159" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G159"/>
-      <c r="H159"/>
-      <c r="I159"/>
-      <c r="J159"/>
+      <c r="G159" t="n">
+        <v>0.11506637930627488</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.9483790467487712</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.32644628099173556</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.9766633384402071</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
@@ -4458,10 +5090,18 @@
       <c r="F161" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G161"/>
-      <c r="H161"/>
-      <c r="I161"/>
-      <c r="J161"/>
+      <c r="G161" t="n">
+        <v>0.11410093811487948</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.9425832827261516</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.9797263927301462</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
@@ -4514,10 +5154,18 @@
       <c r="F163" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G163"/>
-      <c r="H163"/>
-      <c r="I163"/>
-      <c r="J163"/>
+      <c r="G163" t="n">
+        <v>0.14759921225345402</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.9470564586999166</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.3421750663129973</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.9281351655705457</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
@@ -4568,10 +5216,18 @@
       <c r="F165" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G165"/>
-      <c r="H165"/>
-      <c r="I165"/>
-      <c r="J165"/>
+      <c r="G165" t="n">
+        <v>0.13606869105712463</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.9403148148148148</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.9427216479567263</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
@@ -4622,10 +5278,18 @@
       <c r="F167" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G167"/>
-      <c r="H167"/>
-      <c r="I167"/>
-      <c r="J167"/>
+      <c r="G167" t="n">
+        <v>0.13865157613560403</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.9469426243772537</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.3723404255319149</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.9436325340901281</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
@@ -4676,10 +5340,18 @@
       <c r="F169" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G169"/>
-      <c r="H169"/>
-      <c r="I169"/>
-      <c r="J169"/>
+      <c r="G169" t="n">
+        <v>0.13261432431305992</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.9396727510906238</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.9541014780879937</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
@@ -4730,10 +5402,18 @@
       <c r="F171" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G171"/>
-      <c r="H171"/>
-      <c r="I171"/>
-      <c r="J171"/>
+      <c r="G171" t="n">
+        <v>0.1332917682473388</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.9469333062633235</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.9533412839586028</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
@@ -4784,10 +5464,18 @@
       <c r="F173" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G173"/>
-      <c r="H173"/>
-      <c r="I173"/>
-      <c r="J173"/>
+      <c r="G173" t="n">
+        <v>0.1308551860997236</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.9404203869047619</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.9617348356227813</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
@@ -4838,10 +5526,18 @@
       <c r="F175" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G175"/>
-      <c r="H175"/>
-      <c r="I175"/>
-      <c r="J175"/>
+      <c r="G175" t="n">
+        <v>0.12779587227875816</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.9472413379251704</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.3709090909090909</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.9714063368538076</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
@@ -4892,10 +5588,18 @@
       <c r="F177" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G177"/>
-      <c r="H177"/>
-      <c r="I177"/>
-      <c r="J177"/>
+      <c r="G177" t="n">
+        <v>0.1278041231694961</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.9405290860619318</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.9776818787968587</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
@@ -4946,10 +5650,18 @@
       <c r="F179" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G179"/>
-      <c r="H179"/>
-      <c r="I179"/>
-      <c r="J179"/>
+      <c r="G179" t="n">
+        <v>0.12124102210469385</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.9477608270741392</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.340080971659919</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.9766732086515898</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
@@ -5000,10 +5712,18 @@
       <c r="F181" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G181"/>
-      <c r="H181"/>
-      <c r="I181"/>
-      <c r="J181"/>
+      <c r="G181" t="n">
+        <v>0.11838848695088415</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.9416898304660306</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.9797324410586296</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
@@ -5056,10 +5776,18 @@
       <c r="F183" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G183"/>
-      <c r="H183"/>
-      <c r="I183"/>
-      <c r="J183"/>
+      <c r="G183" t="n">
+        <v>0.15176691114654578</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.9783736936842297</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0.8433598183881952</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.6564924032617114</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
@@ -5112,10 +5840,18 @@
       <c r="F185" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G185"/>
-      <c r="H185"/>
-      <c r="I185"/>
-      <c r="J185"/>
+      <c r="G185" t="n">
+        <v>0.10814130011438063</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.9790987654320987</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.7953091684434968</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.7043601537785317</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
@@ -5168,10 +5904,18 @@
       <c r="F187" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G187"/>
-      <c r="H187"/>
-      <c r="I187"/>
-      <c r="J187"/>
+      <c r="G187" t="n">
+        <v>0.1336771855917305</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.9785344129554656</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.8647707486941382</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.7149958339837454</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
@@ -5224,10 +5968,18 @@
       <c r="F189" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G189"/>
-      <c r="H189"/>
-      <c r="I189"/>
-      <c r="J189"/>
+      <c r="G189" t="n">
+        <v>0.10484001089293686</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.979246181730454</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.7939262472885033</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.753923201208377</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
@@ -5280,10 +6032,18 @@
       <c r="F191" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G191"/>
-      <c r="H191"/>
-      <c r="I191"/>
-      <c r="J191"/>
+      <c r="G191" t="n">
+        <v>0.12091030854475578</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.9789865662813458</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.8665521191294387</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.7577475296703119</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
@@ -5336,10 +6096,18 @@
       <c r="F193" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G193"/>
-      <c r="H193"/>
-      <c r="I193"/>
-      <c r="J193"/>
+      <c r="G193" t="n">
+        <v>0.10251891575169661</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.9791798616544342</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.8139013452914798</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.7889126855416765</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
@@ -5392,10 +6160,18 @@
       <c r="F195" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G195"/>
-      <c r="H195"/>
-      <c r="I195"/>
-      <c r="J195"/>
+      <c r="G195" t="n">
+        <v>0.10943762558700539</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.9789703008231316</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.8613981762917933</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.8026573157259985</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
@@ -5448,10 +6224,18 @@
       <c r="F197" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G197"/>
-      <c r="H197"/>
-      <c r="I197"/>
-      <c r="J197"/>
+      <c r="G197" t="n">
+        <v>0.09816575555667258</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.978762075490489</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.8175675675675675</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.8273725519324568</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
@@ -5504,10 +6288,18 @@
       <c r="F199" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G199"/>
-      <c r="H199"/>
-      <c r="I199"/>
-      <c r="J199"/>
+      <c r="G199" t="n">
+        <v>0.08349524284185388</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.9796897729754679</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.9426800929512006</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.8938524515453435</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
@@ -5558,10 +6350,18 @@
       <c r="F201" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G201"/>
-      <c r="H201"/>
-      <c r="I201"/>
-      <c r="J201"/>
+      <c r="G201" t="n">
+        <v>0.08282527032346054</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.9800372570738093</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.9539877300613497</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.9029095587416653</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
@@ -5614,10 +6414,18 @@
       <c r="F203" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G203"/>
-      <c r="H203"/>
-      <c r="I203"/>
-      <c r="J203"/>
+      <c r="G203" t="n">
+        <v>0.1641902348847019</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.9777979349453231</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.8533402922755741</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.6566872987158374</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
@@ -5670,10 +6478,18 @@
       <c r="F205" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G205"/>
-      <c r="H205"/>
-      <c r="I205"/>
-      <c r="J205"/>
+      <c r="G205" t="n">
+        <v>0.11287283637655793</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.9787407407407407</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.7839506172839507</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.7043785678021719</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
@@ -5726,10 +6542,18 @@
       <c r="F207" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G207"/>
-      <c r="H207"/>
-      <c r="I207"/>
-      <c r="J207"/>
+      <c r="G207" t="n">
+        <v>0.1440979400209109</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.9779779556887076</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.8733905579399142</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.7151941857824211</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
@@ -5782,10 +6606,18 @@
       <c r="F209" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G209"/>
-      <c r="H209"/>
-      <c r="I209"/>
-      <c r="J209"/>
+      <c r="G209" t="n">
+        <v>0.1091520230857791</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.9788750255169897</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0.779874213836478</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.7539359719668406</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
@@ -5838,10 +6670,18 @@
       <c r="F211" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G211"/>
-      <c r="H211"/>
-      <c r="I211"/>
-      <c r="J211"/>
+      <c r="G211" t="n">
+        <v>0.12981408486991672</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.9783688635217979</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0.8745997865528282</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.7579401613380758</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
@@ -5894,10 +6734,18 @@
       <c r="F213" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G213"/>
-      <c r="H213"/>
-      <c r="I213"/>
-      <c r="J213"/>
+      <c r="G213" t="n">
+        <v>0.1068911183616816</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.9787886690759162</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0.7991360691144709</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.7889338046391848</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
@@ -5950,10 +6798,18 @@
       <c r="F215" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G215"/>
-      <c r="H215"/>
-      <c r="I215"/>
-      <c r="J215"/>
+      <c r="G215" t="n">
+        <v>0.11726256134983161</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.9784853981128615</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0.8662790697674418</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.8027753000324359</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
@@ -6006,10 +6862,18 @@
       <c r="F217" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G217"/>
-      <c r="H217"/>
-      <c r="I217"/>
-      <c r="J217"/>
+      <c r="G217" t="n">
+        <v>0.10235685443154566</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.9784136389948773</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0.803030303030303</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.827402840198591</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
@@ -6062,10 +6926,18 @@
       <c r="F219" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G219"/>
-      <c r="H219"/>
-      <c r="I219"/>
-      <c r="J219"/>
+      <c r="G219" t="n">
+        <v>0.08900781146576875</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.979173576874821</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0.9431988041853513</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.8939335010594294</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
@@ -6116,10 +6988,18 @@
       <c r="F221" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G221"/>
-      <c r="H221"/>
-      <c r="I221"/>
-      <c r="J221"/>
+      <c r="G221" t="n">
+        <v>0.08634791931118478</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0.9797674038086368</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0.9544072948328267</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.9029263133153131</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
@@ -6172,10 +7052,18 @@
       <c r="F223" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G223"/>
-      <c r="H223"/>
-      <c r="I223"/>
-      <c r="J223"/>
+      <c r="G223" t="n">
+        <v>0.179192977024041</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0.9771676306416781</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0.8606719367588933</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.6568291356982896</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
@@ -6228,10 +7116,18 @@
       <c r="F225" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G225"/>
-      <c r="H225"/>
-      <c r="I225"/>
-      <c r="J225"/>
+      <c r="G225" t="n">
+        <v>0.11844973140601726</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0.9782777777777778</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0.7871485943775101</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.7044247130066501</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
@@ -6284,10 +7180,18 @@
       <c r="F227" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G227"/>
-      <c r="H227"/>
-      <c r="I227"/>
-      <c r="J227"/>
+      <c r="G227" t="n">
+        <v>0.15673412219887922</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.977431448201034</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0.8791432942376338</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.7153328641344803</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
@@ -6340,10 +7244,18 @@
       <c r="F229" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G229"/>
-      <c r="H229"/>
-      <c r="I229"/>
-      <c r="J229"/>
+      <c r="G229" t="n">
+        <v>0.11441659592729997</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0.9783677786919218</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0.7849898580121704</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.754004470394472</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
@@ -6396,10 +7308,18 @@
       <c r="F231" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G231"/>
-      <c r="H231"/>
-      <c r="I231"/>
-      <c r="J231"/>
+      <c r="G231" t="n">
+        <v>0.14059046954991028</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0.9777773712538823</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0.8801422041645506</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.7580841772626873</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
@@ -6452,10 +7372,18 @@
       <c r="F233" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G233"/>
-      <c r="H233"/>
-      <c r="I233"/>
-      <c r="J233"/>
+      <c r="G233" t="n">
+        <v>0.1119848431532877</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0.9783788482793736</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0.8021052631578948</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.7889862250425631</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
@@ -6508,10 +7436,18 @@
       <c r="F235" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G235"/>
-      <c r="H235"/>
-      <c r="I235"/>
-      <c r="J235"/>
+      <c r="G235" t="n">
+        <v>0.12671191750766955</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0.977945477110943</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0.8762057877813505</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.8030109463147947</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
@@ -6564,10 +7500,18 @@
       <c r="F237" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G237"/>
-      <c r="H237"/>
-      <c r="I237"/>
-      <c r="J237"/>
+      <c r="G237" t="n">
+        <v>0.10726684528385148</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0.9781148658321767</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0.8054968287526427</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.8274529954744408</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
@@ -6620,10 +7564,18 @@
       <c r="F239" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G239"/>
-      <c r="H239"/>
-      <c r="I239"/>
-      <c r="J239"/>
+      <c r="G239" t="n">
+        <v>0.0958543535517919</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0.9786769446910721</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0.9476902173913043</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.894174190724741</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
@@ -6674,10 +7626,18 @@
       <c r="F241" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G241"/>
-      <c r="H241"/>
-      <c r="I241"/>
-      <c r="J241"/>
+      <c r="G241" t="n">
+        <v>0.09057969251179766</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0.9793162468458377</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0.9558823529411765</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.9029877520722503</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
@@ -6730,10 +7690,18 @@
       <c r="F243" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G243"/>
-      <c r="H243"/>
-      <c r="I243"/>
-      <c r="J243"/>
+      <c r="G243" t="n">
+        <v>0.22996925146959815</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0.9749878282582389</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0.8885496183206106</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.657603883179658</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
@@ -6786,10 +7754,18 @@
       <c r="F245" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G245"/>
-      <c r="H245"/>
-      <c r="I245"/>
-      <c r="J245"/>
+      <c r="G245" t="n">
+        <v>0.1369282321409806</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0.976574074074074</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.7045799399250612</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
@@ -6842,10 +7818,18 @@
       <c r="F247" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G247"/>
-      <c r="H247"/>
-      <c r="I247"/>
-      <c r="J247"/>
+      <c r="G247" t="n">
+        <v>0.1994415976623125</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0.9753391050178029</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0.9025844930417495</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.716121303186899</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
@@ -6898,10 +7882,18 @@
       <c r="F249" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G249"/>
-      <c r="H249"/>
-      <c r="I249"/>
-      <c r="J249"/>
+      <c r="G249" t="n">
+        <v>0.1316844269157273</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0.9769395405228192</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0.797752808988764</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.7541835432846543</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
@@ -6954,10 +7946,18 @@
       <c r="F251" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G251"/>
-      <c r="H251"/>
-      <c r="I251"/>
-      <c r="J251"/>
+      <c r="G251" t="n">
+        <v>0.17756416179607518</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0.9758280891750817</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0.894888705688376</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.7587489392456768</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
@@ -7010,10 +8010,18 @@
       <c r="F253" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G253"/>
-      <c r="H253"/>
-      <c r="I253"/>
-      <c r="J253"/>
+      <c r="G253" t="n">
+        <v>0.1289195330818531</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0.9769014399344299</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0.8146718146718147</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.7891839338130565</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
@@ -7066,10 +8074,18 @@
       <c r="F255" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G255"/>
-      <c r="H255"/>
-      <c r="I255"/>
-      <c r="J255"/>
+      <c r="G255" t="n">
+        <v>0.15891576963200976</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0.9762113891057007</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0.890782000873744</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.8036617814499778</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
@@ -7122,10 +8138,18 @@
       <c r="F257" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G257"/>
-      <c r="H257"/>
-      <c r="I257"/>
-      <c r="J257"/>
+      <c r="G257" t="n">
+        <v>0.12352517743999676</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0.9768515925033767</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0.8178294573643411</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.8276609447375591</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
@@ -7178,10 +8202,18 @@
       <c r="F259" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G259"/>
-      <c r="H259"/>
-      <c r="I259"/>
-      <c r="J259"/>
+      <c r="G259" t="n">
+        <v>0.11957020586910766</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0.9770709663067613</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0.9530240751614797</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.8945868310571522</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
@@ -7232,10 +8264,18 @@
       <c r="F261" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G261"/>
-      <c r="H261"/>
-      <c r="I261"/>
-      <c r="J261"/>
+      <c r="G261" t="n">
+        <v>0.10471612398181938</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0.9780299979867123</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.9598930481283422</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.9031777065571134</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
@@ -7288,10 +8328,18 @@
       <c r="F263" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G263"/>
-      <c r="H263"/>
-      <c r="I263"/>
-      <c r="J263"/>
+      <c r="G263" t="n">
+        <v>0.23978968885297716</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0.9745211606488093</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0.8957142857142857</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.6578443722064201</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
@@ -7344,10 +8392,18 @@
       <c r="F265" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G265"/>
-      <c r="H265"/>
-      <c r="I265"/>
-      <c r="J265"/>
+      <c r="G265" t="n">
+        <v>0.14050281668676556</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0.9762222222222222</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0.7985212569316081</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.704593735871026</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
@@ -7400,10 +8456,18 @@
       <c r="F267" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G267"/>
-      <c r="H267"/>
-      <c r="I267"/>
-      <c r="J267"/>
+      <c r="G267" t="n">
+        <v>0.20785350933272997</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0.974922220220516</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0.9084454409566517</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.7163554894744112</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
@@ -7456,10 +8520,18 @@
       <c r="F269" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G269"/>
-      <c r="H269"/>
-      <c r="I269"/>
-      <c r="J269"/>
+      <c r="G269" t="n">
+        <v>0.13517988500191414</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0.9766122746897925</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0.7973977695167286</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.7541960337416853</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
@@ -7512,10 +8584,18 @@
       <c r="F271" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G271"/>
-      <c r="H271"/>
-      <c r="I271"/>
-      <c r="J271"/>
+      <c r="G271" t="n">
+        <v>0.1848561152291083</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0.9754622176691546</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0.9008553654743391</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.7589739007530035</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
@@ -7568,10 +8648,18 @@
       <c r="F273" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G273"/>
-      <c r="H273"/>
-      <c r="I273"/>
-      <c r="J273"/>
+      <c r="G273" t="n">
+        <v>0.13225933443430385</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0.9766716961918422</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0.8157389635316699</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.789198595483004</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
@@ -7624,10 +8712,18 @@
       <c r="F275" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G275"/>
-      <c r="H275"/>
-      <c r="I275"/>
-      <c r="J275"/>
+      <c r="G275" t="n">
+        <v>0.16535155376979638</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0.9758894964122609</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0.8961362692147902</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.8038542975641148</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
@@ -7680,10 +8776,18 @@
       <c r="F277" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G277"/>
-      <c r="H277"/>
-      <c r="I277"/>
-      <c r="J277"/>
+      <c r="G277" t="n">
+        <v>0.1267317967467293</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0.9766150666940538</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0.8188824662813102</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.8276763210532508</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
@@ -7736,10 +8840,18 @@
       <c r="F279" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G279"/>
-      <c r="H279"/>
-      <c r="I279"/>
-      <c r="J279"/>
+      <c r="G279" t="n">
+        <v>0.12410986290075166</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0.9768015703172148</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0.9546228020419739</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.8946956534079966</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
@@ -7790,10 +8902,18 @@
       <c r="F281" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G281"/>
-      <c r="H281"/>
-      <c r="I281"/>
-      <c r="J281"/>
+      <c r="G281" t="n">
+        <v>0.10774453344700102</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0.9777410080089589</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0.9604221635883905</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.9032056477809196</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
@@ -7846,10 +8966,18 @@
       <c r="F283" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G283"/>
-      <c r="H283"/>
-      <c r="I283"/>
-      <c r="J283"/>
+      <c r="G283" t="n">
+        <v>0.24857493301317232</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0.9740666142759884</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0.9021702838063439</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.6581030680582515</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
@@ -7902,10 +9030,18 @@
       <c r="F285" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G285"/>
-      <c r="H285"/>
-      <c r="I285"/>
-      <c r="J285"/>
+      <c r="G285" t="n">
+        <v>0.14369884716948786</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0.9758888888888889</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0.7977941176470589</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.7046006342285205</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
@@ -7958,10 +9094,18 @@
       <c r="F287" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G287"/>
-      <c r="H287"/>
-      <c r="I287"/>
-      <c r="J287"/>
+      <c r="G287" t="n">
+        <v>0.21541803876738502</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0.974454630654848</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0.9135802469135802</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.7165869169892211</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
@@ -8014,10 +9158,18 @@
       <c r="F289" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G289"/>
-      <c r="H289"/>
-      <c r="I289"/>
-      <c r="J289"/>
+      <c r="G289" t="n">
+        <v>0.13826498313281851</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0.9763219912289925</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0.7977941176470589</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.7542178674065999</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
@@ -8070,10 +9222,18 @@
       <c r="F291" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G291"/>
-      <c r="H291"/>
-      <c r="I291"/>
-      <c r="J291"/>
+      <c r="G291" t="n">
+        <v>0.19137241626122709</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0.9750617916321122</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0.907036091870215</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.7592375527417589</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
@@ -8126,10 +9286,18 @@
       <c r="F293" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G293"/>
-      <c r="H293"/>
-      <c r="I293"/>
-      <c r="J293"/>
+      <c r="G293" t="n">
+        <v>0.13528882396034167</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0.9763550223844917</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0.8155893536121673</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.7892168398627643</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
@@ -8182,10 +9350,18 @@
       <c r="F295" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G295"/>
-      <c r="H295"/>
-      <c r="I295"/>
-      <c r="J295"/>
+      <c r="G295" t="n">
+        <v>0.170878109557895</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0.9754744126901319</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0.9008723235527359</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.8040420079678686</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
@@ -8238,10 +9414,18 @@
       <c r="F297" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G297"/>
-      <c r="H297"/>
-      <c r="I297"/>
-      <c r="J297"/>
+      <c r="G297" t="n">
+        <v>0.12948261776418235</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0.9763909896115375</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0.8187022900763359</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.8276957566449503</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
@@ -8294,10 +9478,18 @@
       <c r="F299" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G299"/>
-      <c r="H299"/>
-      <c r="I299"/>
-      <c r="J299"/>
+      <c r="G299" t="n">
+        <v>0.12845782202742373</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0.9765260053221727</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0.9559955995599559</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.8947954304901639</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
@@ -8348,10 +9540,18 @@
       <c r="F301" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G301"/>
-      <c r="H301"/>
-      <c r="I301"/>
-      <c r="J301"/>
+      <c r="G301" t="n">
+        <v>0.11028398329404233</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0.9773956917811666</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0.9609375</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.9032335907335908</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
@@ -8404,10 +9604,18 @@
       <c r="F303" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G303"/>
-      <c r="H303"/>
-      <c r="I303"/>
-      <c r="J303"/>
+      <c r="G303" t="n">
+        <v>0.25664564703336284</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0.9736363636363636</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0.9104160340115396</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.6584978452615073</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
@@ -8460,10 +9668,18 @@
       <c r="F305" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G305"/>
-      <c r="H305"/>
-      <c r="I305"/>
-      <c r="J305"/>
+      <c r="G305" t="n">
+        <v>0.14670205674905318</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0.9756481481481482</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0.7942238267148014</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.7046195012573864</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
@@ -8516,10 +9732,18 @@
       <c r="F307" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G307"/>
-      <c r="H307"/>
-      <c r="I307"/>
-      <c r="J307"/>
+      <c r="G307" t="n">
+        <v>0.22227258340184894</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0.9741125937201431</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0.9200647249190939</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.716954320912362</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
@@ -8572,10 +9796,18 @@
       <c r="F309" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G309"/>
-      <c r="H309"/>
-      <c r="I309"/>
-      <c r="J309"/>
+      <c r="G309" t="n">
+        <v>0.14109287242456045</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0.9760688307189865</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0.7934782608695652</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.7542304642981021</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
@@ -8628,10 +9860,18 @@
       <c r="F311" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G311"/>
-      <c r="H311"/>
-      <c r="I311"/>
-      <c r="J311"/>
+      <c r="G311" t="n">
+        <v>0.1974651389187539</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0.9746674634535017</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0.9125255275697753</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.7595343676203405</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
@@ -8684,10 +9924,18 @@
       <c r="F313" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G313"/>
-      <c r="H313"/>
-      <c r="I313"/>
-      <c r="J313"/>
+      <c r="G313" t="n">
+        <v>0.13800128883945126</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0.9761501158032648</v>
+      </c>
+      <c r="I313" t="n">
+        <v>0.8116760828625236</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.7892226990939437</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
@@ -8740,10 +9988,18 @@
       <c r="F315" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G315"/>
-      <c r="H315"/>
-      <c r="I315"/>
-      <c r="J315"/>
+      <c r="G315" t="n">
+        <v>0.176182729570843</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0.9750947548600073</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0.9065628476084538</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.8043237599608372</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
@@ -8796,10 +10052,18 @@
       <c r="F317" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G317"/>
-      <c r="H317"/>
-      <c r="I317"/>
-      <c r="J317"/>
+      <c r="G317" t="n">
+        <v>0.1320557203798862</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0.9762229317996501</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0.8147448015122873</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.8277028073152455</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
@@ -8852,10 +10116,18 @@
       <c r="F319" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G319"/>
-      <c r="H319"/>
-      <c r="I319"/>
-      <c r="J319"/>
+      <c r="G319" t="n">
+        <v>0.132400689280194</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0.9762607975679984</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0.9582681272822118</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.8949750853304616</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
@@ -8906,10 +10178,18 @@
       <c r="F321" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G321"/>
-      <c r="H321"/>
-      <c r="I321"/>
-      <c r="J321"/>
+      <c r="G321" t="n">
+        <v>0.11261172034894348</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0.9772139635247268</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0.9615384615384616</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.9032671245591238</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
@@ -8962,10 +10242,18 @@
       <c r="F323" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G323"/>
-      <c r="H323"/>
-      <c r="I323"/>
-      <c r="J323"/>
+      <c r="G323" t="n">
+        <v>0.26413837956002084</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0.9731717171717171</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0.9176988714560969</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.6589453504203578</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
@@ -9018,10 +10306,18 @@
       <c r="F325" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G325"/>
-      <c r="H325"/>
-      <c r="I325"/>
-      <c r="J325"/>
+      <c r="G325" t="n">
+        <v>0.14949875267076523</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0.9753888888888889</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0.7954144620811288</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.704663854354438</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
@@ -9074,10 +10370,18 @@
       <c r="F327" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G327"/>
-      <c r="H327"/>
-      <c r="I327"/>
-      <c r="J327"/>
+      <c r="G327" t="n">
+        <v>0.22872086490553115</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0.9737179824543648</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0.9264094955489615</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.7173606167239591</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
@@ -9130,10 +10434,18 @@
       <c r="F329" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G329"/>
-      <c r="H329"/>
-      <c r="I329"/>
-      <c r="J329"/>
+      <c r="G329" t="n">
+        <v>0.14373625584089547</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0.9757728324199954</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0.7936507936507936</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.7542819621762589</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
@@ -9186,10 +10498,18 @@
       <c r="F331" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G331"/>
-      <c r="H331"/>
-      <c r="I331"/>
-      <c r="J331"/>
+      <c r="G331" t="n">
+        <v>0.2030420371409212</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0.9742243524074345</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0.9191476026324036</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.7599230595617404</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
@@ -9242,10 +10562,18 @@
       <c r="F333" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G333"/>
-      <c r="H333"/>
-      <c r="I333"/>
-      <c r="J333"/>
+      <c r="G333" t="n">
+        <v>0.14049240728014512</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0.9758831163186359</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0.8107606679035251</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.7892494162677055</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
@@ -9298,10 +10626,18 @@
       <c r="F335" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G335"/>
-      <c r="H335"/>
-      <c r="I335"/>
-      <c r="J335"/>
+      <c r="G335" t="n">
+        <v>0.18112224269796542</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0.9746344843044759</v>
+      </c>
+      <c r="I335" t="n">
+        <v>0.9118159637504357</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.8046028394878599</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
@@ -9354,10 +10690,18 @@
       <c r="F337" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G337"/>
-      <c r="H337"/>
-      <c r="I337"/>
-      <c r="J337"/>
+      <c r="G337" t="n">
+        <v>0.13447156532532423</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0.9759864059903274</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0.8141263940520446</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.8277365572085073</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
@@ -9410,10 +10754,18 @@
       <c r="F339" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G339"/>
-      <c r="H339"/>
-      <c r="I339"/>
-      <c r="J339"/>
+      <c r="G339" t="n">
+        <v>0.13600547660358206</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0.9760201181384544</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0.9603764239722635</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.8951602597260341</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
@@ -9464,10 +10816,18 @@
       <c r="F341" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G341"/>
-      <c r="H341"/>
-      <c r="I341"/>
-      <c r="J341"/>
+      <c r="G341" t="n">
+        <v>0.11486434254199017</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0.9770129404437622</v>
+      </c>
+      <c r="I341" t="n">
+        <v>0.9616368286445013</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.903272713772129</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
@@ -9520,10 +10880,18 @@
       <c r="F343" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G343"/>
-      <c r="H343"/>
-      <c r="I343"/>
-      <c r="J343"/>
+      <c r="G343" t="n">
+        <v>0.2781438462042973</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0.9724888888888888</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0.9336145648312612</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.660115474947808</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
@@ -9576,10 +10944,18 @@
       <c r="F345" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G345"/>
-      <c r="H345"/>
-      <c r="I345"/>
-      <c r="J345"/>
+      <c r="G345" t="n">
+        <v>0.1547193541920561</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0.9748888888888889</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0.8066666666666666</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.7048079306071872</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
@@ -9632,10 +11008,18 @@
       <c r="F347" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G347"/>
-      <c r="H347"/>
-      <c r="I347"/>
-      <c r="J347"/>
+      <c r="G347" t="n">
+        <v>0.2407857241803314</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0.9730237962220765</v>
+      </c>
+      <c r="I347" t="n">
+        <v>0.9391858754291319</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.7183951829414856</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
@@ -9688,10 +11072,18 @@
       <c r="F349" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G349"/>
-      <c r="H349"/>
-      <c r="I349"/>
-      <c r="J349"/>
+      <c r="G349" t="n">
+        <v>0.14850270630591253</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0.975210751903416</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0.8036912751677853</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.7544174865554757</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
@@ -9744,10 +11136,18 @@
       <c r="F351" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G351"/>
-      <c r="H351"/>
-      <c r="I351"/>
-      <c r="J351"/>
+      <c r="G351" t="n">
+        <v>0.2136179245541488</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0.9735495227409467</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0.9325842696629213</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.7609070531157046</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
@@ -9800,10 +11200,18 @@
       <c r="F353" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G353"/>
-      <c r="H353"/>
-      <c r="I353"/>
-      <c r="J353"/>
+      <c r="G353" t="n">
+        <v>0.14517072832326783</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0.9753120149022043</v>
+      </c>
+      <c r="I353" t="n">
+        <v>0.8197879858657244</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.7893814190319264</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
@@ -9856,10 +11264,18 @@
       <c r="F355" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G355"/>
-      <c r="H355"/>
-      <c r="I355"/>
-      <c r="J355"/>
+      <c r="G355" t="n">
+        <v>0.19041966911741956</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0.9740844060177648</v>
+      </c>
+      <c r="I355" t="n">
+        <v>0.9235649546827794</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.805324493074905</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
@@ -9912,10 +11328,18 @@
       <c r="F357" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G357"/>
-      <c r="H357"/>
-      <c r="I357"/>
-      <c r="J357"/>
+      <c r="G357" t="n">
+        <v>0.13898847949048349</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0.9754822325546655</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0.8220640569395018</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.8278596117394913</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
@@ -9968,10 +11392,18 @@
       <c r="F359" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G359"/>
-      <c r="H359"/>
-      <c r="I359"/>
-      <c r="J359"/>
+      <c r="G359" t="n">
+        <v>0.1423932879714866</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0.9755387771242153</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0.9646486964206805</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.8956035369781445</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
@@ -10022,10 +11454,18 @@
       <c r="F361" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G361"/>
-      <c r="H361"/>
-      <c r="I361"/>
-      <c r="J361"/>
+      <c r="G361" t="n">
+        <v>0.11891379192225805</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0.9767114153068028</v>
+      </c>
+      <c r="I361" t="n">
+        <v>0.9631449631449631</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.9033621505882061</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
@@ -10078,10 +11518,18 @@
       <c r="F363" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G363"/>
-      <c r="H363"/>
-      <c r="I363"/>
-      <c r="J363"/>
+      <c r="G363" t="n">
+        <v>0.2484381504366171</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0.9940888650055152</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0.7969006381039198</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.16172333840638184</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
@@ -10134,10 +11582,18 @@
       <c r="F365" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G365"/>
-      <c r="H365"/>
-      <c r="I365"/>
-      <c r="J365"/>
+      <c r="G365" t="n">
+        <v>0.13926645363586235</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0.9964506172839506</v>
+      </c>
+      <c r="I365" t="n">
+        <v>0.5100548446069469</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.153262367562781</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="s">
@@ -10190,10 +11646,18 @@
       <c r="F367" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G367"/>
-      <c r="H367"/>
-      <c r="I367"/>
-      <c r="J367"/>
+      <c r="G367" t="n">
+        <v>0.23665517180507875</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0.994196982673964</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0.8047138047138047</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.1906917946141561</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
@@ -10246,10 +11710,18 @@
       <c r="F369" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G369"/>
-      <c r="H369"/>
-      <c r="I369"/>
-      <c r="J369"/>
+      <c r="G369" t="n">
+        <v>0.13095933151312755</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0.9964983264970273</v>
+      </c>
+      <c r="I369" t="n">
+        <v>0.5321219987021415</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.19075277796820372</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
@@ -10302,10 +11774,18 @@
       <c r="F371" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G371"/>
-      <c r="H371"/>
-      <c r="I371"/>
-      <c r="J371"/>
+      <c r="G371" t="n">
+        <v>0.22290596030614418</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0.9943512478311192</v>
+      </c>
+      <c r="I371" t="n">
+        <v>0.8017140631086872</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.2303629972278133</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
@@ -10358,10 +11838,18 @@
       <c r="F373" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G373"/>
-      <c r="H373"/>
-      <c r="I373"/>
-      <c r="J373"/>
+      <c r="G373" t="n">
+        <v>0.12162110108123203</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0.9965335370967441</v>
+      </c>
+      <c r="I373" t="n">
+        <v>0.5516483516483517</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.23943100818626079</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
@@ -10414,10 +11902,18 @@
       <c r="F375" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G375"/>
-      <c r="H375"/>
-      <c r="I375"/>
-      <c r="J375"/>
+      <c r="G375" t="n">
+        <v>0.19498804925988467</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0.9945212749670848</v>
+      </c>
+      <c r="I375" t="n">
+        <v>0.7959687371452078</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.31712293272506925</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
@@ -10470,10 +11966,18 @@
       <c r="F377" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G377"/>
-      <c r="H377"/>
-      <c r="I377"/>
-      <c r="J377"/>
+      <c r="G377" t="n">
+        <v>0.10937393795108055</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0.99713915308959</v>
+      </c>
+      <c r="I377" t="n">
+        <v>0.5547325102880658</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.3364679541001959</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
@@ -10526,10 +12030,18 @@
       <c r="F379" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G379"/>
-      <c r="H379"/>
-      <c r="I379"/>
-      <c r="J379"/>
+      <c r="G379" t="n">
+        <v>0.14687918894920543</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0.9948456806721299</v>
+      </c>
+      <c r="I379" t="n">
+        <v>0.7661545964398927</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.49103583425511155</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="s">
@@ -10582,10 +12094,18 @@
       <c r="F381" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G381"/>
-      <c r="H381"/>
-      <c r="I381"/>
-      <c r="J381"/>
+      <c r="G381" t="n">
+        <v>0.09293268952843421</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0.9978603617818957</v>
+      </c>
+      <c r="I381" t="n">
+        <v>0.6279491833030852</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.5040149660033064</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
@@ -10638,10 +12158,18 @@
       <c r="F383" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G383"/>
-      <c r="H383"/>
-      <c r="I383"/>
-      <c r="J383"/>
+      <c r="G383" t="n">
+        <v>0.27179719860988605</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0.993834318522499</v>
+      </c>
+      <c r="I383" t="n">
+        <v>0.822975799223185</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.1619783496414134</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
@@ -10694,10 +12222,18 @@
       <c r="F385" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G385"/>
-      <c r="H385"/>
-      <c r="I385"/>
-      <c r="J385"/>
+      <c r="G385" t="n">
+        <v>0.15015980142404153</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0.9963333333333333</v>
+      </c>
+      <c r="I385" t="n">
+        <v>0.5580524344569289</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.1533432002547914</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
@@ -10750,10 +12286,18 @@
       <c r="F387" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G387"/>
-      <c r="H387"/>
-      <c r="I387"/>
-      <c r="J387"/>
+      <c r="G387" t="n">
+        <v>0.25918140026332587</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0.99397426915741</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0.8282628536659568</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.19099720326108766</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
@@ -10806,10 +12350,18 @@
       <c r="F389" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G389"/>
-      <c r="H389"/>
-      <c r="I389"/>
-      <c r="J389"/>
+      <c r="G389" t="n">
+        <v>0.14101407232962915</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0.9963436589394755</v>
+      </c>
+      <c r="I389" t="n">
+        <v>0.5679583574320416</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.19081430826537552</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
@@ -10862,10 +12414,18 @@
       <c r="F391" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G391"/>
-      <c r="H391"/>
-      <c r="I391"/>
-      <c r="J391"/>
+      <c r="G391" t="n">
+        <v>0.24413451717907625</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0.9940626684430522</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0.830233291298865</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.23081267803935693</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
@@ -10918,10 +12478,18 @@
       <c r="F393" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G393"/>
-      <c r="H393"/>
-      <c r="I393"/>
-      <c r="J393"/>
+      <c r="G393" t="n">
+        <v>0.13063054373732583</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0.996452777208317</v>
+      </c>
+      <c r="I393" t="n">
+        <v>0.5917044718081659</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.23958443695195597</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="s">
@@ -10974,10 +12542,18 @@
       <c r="F395" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G395"/>
-      <c r="H395"/>
-      <c r="I395"/>
-      <c r="J395"/>
+      <c r="G395" t="n">
+        <v>0.21341460969939705</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0.9943233197046738</v>
+      </c>
+      <c r="I395" t="n">
+        <v>0.8376560999039385</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.31797591426361727</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
@@ -11030,10 +12606,18 @@
       <c r="F397" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G397"/>
-      <c r="H397"/>
-      <c r="I397"/>
-      <c r="J397"/>
+      <c r="G397" t="n">
+        <v>0.11683159307032968</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0.9970581269243715</v>
+      </c>
+      <c r="I397" t="n">
+        <v>0.5753122703894196</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.3365434296777246</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="s">
@@ -11086,10 +12670,18 @@
       <c r="F399" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G399"/>
-      <c r="H399"/>
-      <c r="I399"/>
-      <c r="J399"/>
+      <c r="G399" t="n">
+        <v>0.15964343846314732</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0.9945830566948579</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0.7968332305161423</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.49174006451257507</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
@@ -11142,10 +12734,18 @@
       <c r="F401" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G401"/>
-      <c r="H401"/>
-      <c r="I401"/>
-      <c r="J401"/>
+      <c r="G401" t="n">
+        <v>0.09900284562076152</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0.9977088829699946</v>
+      </c>
+      <c r="I401" t="n">
+        <v>0.6406518010291595</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.5041595682504943</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="s">
@@ -11198,10 +12798,18 @@
       <c r="F403" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G403"/>
-      <c r="H403"/>
-      <c r="I403"/>
-      <c r="J403"/>
+      <c r="G403" t="n">
+        <v>0.2992402532133505</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0.993531286995099</v>
+      </c>
+      <c r="I403" t="n">
+        <v>0.8512213993589035</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.16243134624130318</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="s">
@@ -11254,10 +12862,18 @@
       <c r="F405" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G405"/>
-      <c r="H405"/>
-      <c r="I405"/>
-      <c r="J405"/>
+      <c r="G405" t="n">
+        <v>0.1634330240397005</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0.9962037037037037</v>
+      </c>
+      <c r="I405" t="n">
+        <v>0.6040329972502292</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.15340574903953247</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="s">
@@ -11310,10 +12926,18 @@
       <c r="F407" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G407"/>
-      <c r="H407"/>
-      <c r="I407"/>
-      <c r="J407"/>
+      <c r="G407" t="n">
+        <v>0.28567585803762435</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0.9936604290093585</v>
+      </c>
+      <c r="I407" t="n">
+        <v>0.8509352852329499</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.19147890697440137</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="s">
@@ -11366,10 +12990,18 @@
       <c r="F409" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G409"/>
-      <c r="H409"/>
-      <c r="I409"/>
-      <c r="J409"/>
+      <c r="G409" t="n">
+        <v>0.15330123494900333</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0.9962322982980382</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0.6159238858287431</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.19100891858277658</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="s">
@@ -11422,10 +13054,18 @@
       <c r="F411" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G411"/>
-      <c r="H411"/>
-      <c r="I411"/>
-      <c r="J411"/>
+      <c r="G411" t="n">
+        <v>0.2695450119029441</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0.9937414445730371</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0.859291485394655</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.23150599131336572</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="s">
@@ -11478,10 +13118,18 @@
       <c r="F413" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G413"/>
-      <c r="H413"/>
-      <c r="I413"/>
-      <c r="J413"/>
+      <c r="G413" t="n">
+        <v>0.14156700244920817</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0.9963720173198899</v>
+      </c>
+      <c r="I413" t="n">
+        <v>0.6383682469680264</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.23982745058869065</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="s">
@@ -11534,10 +13182,18 @@
       <c r="F415" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G415"/>
-      <c r="H415"/>
-      <c r="I415"/>
-      <c r="J415"/>
+      <c r="G415" t="n">
+        <v>0.23538068052657604</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0.9940785042150599</v>
+      </c>
+      <c r="I415" t="n">
+        <v>0.8620558375634517</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.31889267531614385</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="s">
@@ -11590,10 +13246,18 @@
       <c r="F417" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G417"/>
-      <c r="H417"/>
-      <c r="I417"/>
-      <c r="J417"/>
+      <c r="G417" t="n">
+        <v>0.12580922699128888</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0.9969584024133332</v>
+      </c>
+      <c r="I417" t="n">
+        <v>0.6387370977534912</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.3370376606611663</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="s">
@@ -11646,10 +13310,18 @@
       <c r="F419" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G419"/>
-      <c r="H419"/>
-      <c r="I419"/>
-      <c r="J419"/>
+      <c r="G419" t="n">
+        <v>0.1754151674455685</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0.9943658942178024</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0.8363805392004958</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.4932022777793698</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="s">
@@ -11702,10 +13374,18 @@
       <c r="F421" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G421"/>
-      <c r="H421"/>
-      <c r="I421"/>
-      <c r="J421"/>
+      <c r="G421" t="n">
+        <v>0.10626183451115018</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0.9976647016498568</v>
+      </c>
+      <c r="I421" t="n">
+        <v>0.6616719242902208</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.5044172908941592</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="s">
@@ -11758,10 +13438,18 @@
       <c r="F423" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G423"/>
-      <c r="H423"/>
-      <c r="I423"/>
-      <c r="J423"/>
+      <c r="G423" t="n">
+        <v>0.38618967660241427</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0.9922524939494705</v>
+      </c>
+      <c r="I423" t="n">
+        <v>0.9269547815314242</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.16612835512950067</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="s">
@@ -11814,10 +13502,18 @@
       <c r="F425" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G425"/>
-      <c r="H425"/>
-      <c r="I425"/>
-      <c r="J425"/>
+      <c r="G425" t="n">
+        <v>0.20811358814950762</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0.9950617283950617</v>
+      </c>
+      <c r="I425" t="n">
+        <v>0.7165021156558533</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.1538354737938216</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="s">
@@ -11870,10 +13566,18 @@
       <c r="F427" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G427"/>
-      <c r="H427"/>
-      <c r="I427"/>
-      <c r="J427"/>
+      <c r="G427" t="n">
+        <v>0.37072488958521527</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0.9925427984247345</v>
+      </c>
+      <c r="I427" t="n">
+        <v>0.9287052558919239</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.19584469095336599</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="s">
@@ -11926,10 +13630,18 @@
       <c r="F429" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G429"/>
-      <c r="H429"/>
-      <c r="I429"/>
-      <c r="J429"/>
+      <c r="G429" t="n">
+        <v>0.19482140053736346</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0.9953166663573315</v>
+      </c>
+      <c r="I429" t="n">
+        <v>0.7217173299905986</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.191683091008696</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="s">
@@ -11982,10 +13694,18 @@
       <c r="F431" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G431"/>
-      <c r="H431"/>
-      <c r="I431"/>
-      <c r="J431"/>
+      <c r="G431" t="n">
+        <v>0.35166564162557734</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0.9927187526694518</v>
+      </c>
+      <c r="I431" t="n">
+        <v>0.9355762347888332</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.23684276946504515</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="s">
@@ -12038,10 +13758,18 @@
       <c r="F433" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G433"/>
-      <c r="H433"/>
-      <c r="I433"/>
-      <c r="J433"/>
+      <c r="G433" t="n">
+        <v>0.17864546093072917</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0.9955457815382895</v>
+      </c>
+      <c r="I433" t="n">
+        <v>0.7531494722505958</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.24108686495288031</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="s">
@@ -12094,10 +13822,18 @@
       <c r="F435" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G435"/>
-      <c r="H435"/>
-      <c r="I435"/>
-      <c r="J435"/>
+      <c r="G435" t="n">
+        <v>0.30819193921260296</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0.9931684397018362</v>
+      </c>
+      <c r="I435" t="n">
+        <v>0.9350305388897897</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.325759340523275</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="s">
@@ -12150,10 +13886,18 @@
       <c r="F437" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G437"/>
-      <c r="H437"/>
-      <c r="I437"/>
-      <c r="J437"/>
+      <c r="G437" t="n">
+        <v>0.15664637378526416</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0.9963164258735244</v>
+      </c>
+      <c r="I437" t="n">
+        <v>0.7662337662337663</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.3390351840808512</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="s">
@@ -12206,10 +13950,18 @@
       <c r="F439" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G439"/>
-      <c r="H439"/>
-      <c r="I439"/>
-      <c r="J439"/>
+      <c r="G439" t="n">
+        <v>0.2253494705395507</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0.9936650086348642</v>
+      </c>
+      <c r="I439" t="n">
+        <v>0.9253420376415029</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.5013160605158957</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="s">
@@ -12262,10 +14014,18 @@
       <c r="F441" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G441"/>
-      <c r="H441"/>
-      <c r="I441"/>
-      <c r="J441"/>
+      <c r="G441" t="n">
+        <v>0.1302607626170126</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0.9972292000656409</v>
+      </c>
+      <c r="I441" t="n">
+        <v>0.7577209797657082</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.5061765403879542</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="s">
@@ -12318,10 +14078,18 @@
       <c r="F443" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G443"/>
-      <c r="H443"/>
-      <c r="I443"/>
-      <c r="J443"/>
+      <c r="G443" t="n">
+        <v>0.4021979427981104</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0.9919494786858155</v>
+      </c>
+      <c r="I443" t="n">
+        <v>0.9334477579918472</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.16690658158343846</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="s">
@@ -12374,10 +14142,18 @@
       <c r="F445" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G445"/>
-      <c r="H445"/>
-      <c r="I445"/>
-      <c r="J445"/>
+      <c r="G445" t="n">
+        <v>0.216778191764419</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0.9947777777777778</v>
+      </c>
+      <c r="I445" t="n">
+        <v>0.7365828364013483</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.15406941818480743</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="s">
@@ -12430,10 +14206,18 @@
       <c r="F447" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G447"/>
-      <c r="H447"/>
-      <c r="I447"/>
-      <c r="J447"/>
+      <c r="G447" t="n">
+        <v>0.3863446498556229</v>
+      </c>
+      <c r="H447" t="n">
+        <v>0.9922633811514826</v>
+      </c>
+      <c r="I447" t="n">
+        <v>0.9341442766118612</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.19667257071633687</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="s">
@@ -12486,10 +14270,18 @@
       <c r="F449" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G449"/>
-      <c r="H449"/>
-      <c r="I449"/>
-      <c r="J449"/>
+      <c r="G449" t="n">
+        <v>0.20288206544110432</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0.9950815716698528</v>
+      </c>
+      <c r="I449" t="n">
+        <v>0.742147344374643</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.19196456737624448</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="s">
@@ -12542,10 +14334,18 @@
       <c r="F451" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G451"/>
-      <c r="H451"/>
-      <c r="I451"/>
-      <c r="J451"/>
+      <c r="G451" t="n">
+        <v>0.3669480956403041</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0.9924767223810899</v>
+      </c>
+      <c r="I451" t="n">
+        <v>0.9406342182890856</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.23785347260957018</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="s">
@@ -12598,10 +14398,18 @@
       <c r="F453" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G453"/>
-      <c r="H453"/>
-      <c r="I453"/>
-      <c r="J453"/>
+      <c r="G453" t="n">
+        <v>0.1858375185958091</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0.9953532002658864</v>
+      </c>
+      <c r="I453" t="n">
+        <v>0.7695178849144635</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.2414081934691564</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="s">
@@ -12654,10 +14462,18 @@
       <c r="F455" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G455"/>
-      <c r="H455"/>
-      <c r="I455"/>
-      <c r="J455"/>
+      <c r="G455" t="n">
+        <v>0.32189482056949853</v>
+      </c>
+      <c r="H455" t="n">
+        <v>0.9929908640382747</v>
+      </c>
+      <c r="I455" t="n">
+        <v>0.9400598420562123</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.3270116916308656</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="s">
@@ -12710,10 +14526,18 @@
       <c r="F457" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G457"/>
-      <c r="H457"/>
-      <c r="I457"/>
-      <c r="J457"/>
+      <c r="G457" t="n">
+        <v>0.16272957935616508</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0.996166839106967</v>
+      </c>
+      <c r="I457" t="n">
+        <v>0.782282793867121</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.3394901455379876</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="s">
@@ -12766,10 +14590,18 @@
       <c r="F459" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G459"/>
-      <c r="H459"/>
-      <c r="I459"/>
-      <c r="J459"/>
+      <c r="G459" t="n">
+        <v>0.234947995729981</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0.9935079976340074</v>
+      </c>
+      <c r="I459" t="n">
+        <v>0.9326653805463937</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.5030494998235654</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="s">
@@ -12822,10 +14654,18 @@
       <c r="F461" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G461"/>
-      <c r="H461"/>
-      <c r="I461"/>
-      <c r="J461"/>
+      <c r="G461" t="n">
+        <v>0.13510018838362733</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0.9971534606596902</v>
+      </c>
+      <c r="I461" t="n">
+        <v>0.782051282051282</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.5068733035636109</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="s">
@@ -12878,10 +14718,18 @@
       <c r="F463" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G463"/>
-      <c r="H463"/>
-      <c r="I463"/>
-      <c r="J463"/>
+      <c r="G463" t="n">
+        <v>0.41636602737102024</v>
+      </c>
+      <c r="H463" t="n">
+        <v>0.9916747306560215</v>
+      </c>
+      <c r="I463" t="n">
+        <v>0.9373710931302555</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.16752450041295222</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="s">
@@ -12934,10 +14782,18 @@
       <c r="F465" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G465"/>
-      <c r="H465"/>
-      <c r="I465"/>
-      <c r="J465"/>
+      <c r="G465" t="n">
+        <v>0.22450778682024358</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0.9945185185185185</v>
+      </c>
+      <c r="I465" t="n">
+        <v>0.7515602496399424</v>
+      </c>
+      <c r="J465" t="n">
+        <v>0.154250668423787</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="s">
@@ -12990,10 +14846,18 @@
       <c r="F467" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G467"/>
-      <c r="H467"/>
-      <c r="I467"/>
-      <c r="J467"/>
+      <c r="G467" t="n">
+        <v>0.40017216464104133</v>
+      </c>
+      <c r="H467" t="n">
+        <v>0.9919434849337702</v>
+      </c>
+      <c r="I467" t="n">
+        <v>0.9381987705763439</v>
+      </c>
+      <c r="J467" t="n">
+        <v>0.19738041171634862</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="s">
@@ -13046,10 +14910,18 @@
       <c r="F469" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G469"/>
-      <c r="H469"/>
-      <c r="I469"/>
-      <c r="J469"/>
+      <c r="G469" t="n">
+        <v>0.21001004724006286</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0.9947969833639575</v>
+      </c>
+      <c r="I469" t="n">
+        <v>0.7543437583533814</v>
+      </c>
+      <c r="J469" t="n">
+        <v>0.19215336884474185</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="s">
@@ -13102,10 +14974,18 @@
       <c r="F471" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G471"/>
-      <c r="H471"/>
-      <c r="I471"/>
-      <c r="J471"/>
+      <c r="G471" t="n">
+        <v>0.38045360320168947</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0.9921980983373163</v>
+      </c>
+      <c r="I471" t="n">
+        <v>0.9440637313688539</v>
+      </c>
+      <c r="J471" t="n">
+        <v>0.23864841026858785</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="s">
@@ -13158,10 +15038,18 @@
       <c r="F473" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G473"/>
-      <c r="H473"/>
-      <c r="I473"/>
-      <c r="J473"/>
+      <c r="G473" t="n">
+        <v>0.19232979149080248</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0.9951544066943735</v>
+      </c>
+      <c r="I473" t="n">
+        <v>0.7812773403324584</v>
+      </c>
+      <c r="J473" t="n">
+        <v>0.24167722975827863</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="s">
@@ -13214,10 +15102,18 @@
       <c r="F475" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G475"/>
-      <c r="H475"/>
-      <c r="I475"/>
-      <c r="J475"/>
+      <c r="G475" t="n">
+        <v>0.33419516851741604</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0.9927316443914666</v>
+      </c>
+      <c r="I475" t="n">
+        <v>0.9436948268764579</v>
+      </c>
+      <c r="J475" t="n">
+        <v>0.3280128165837802</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="s">
@@ -13270,10 +15166,18 @@
       <c r="F477" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G477"/>
-      <c r="H477"/>
-      <c r="I477"/>
-      <c r="J477"/>
+      <c r="G477" t="n">
+        <v>0.16823705331795544</v>
+      </c>
+      <c r="H477" t="n">
+        <v>0.996054649032049</v>
+      </c>
+      <c r="I477" t="n">
+        <v>0.7937420178799489</v>
+      </c>
+      <c r="J477" t="n">
+        <v>0.33986705944557744</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="s">
@@ -13326,10 +15230,18 @@
       <c r="F479" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G479"/>
-      <c r="H479"/>
-      <c r="I479"/>
-      <c r="J479"/>
+      <c r="G479" t="n">
+        <v>0.24331003031253517</v>
+      </c>
+      <c r="H479" t="n">
+        <v>0.9933467900381779</v>
+      </c>
+      <c r="I479" t="n">
+        <v>0.9388904533934103</v>
+      </c>
+      <c r="J479" t="n">
+        <v>0.5048203752789447</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="s">
@@ -13382,10 +15294,18 @@
       <c r="F481" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G481"/>
-      <c r="H481"/>
-      <c r="I481"/>
-      <c r="J481"/>
+      <c r="G481" t="n">
+        <v>0.13945315707197856</v>
+      </c>
+      <c r="H481" t="n">
+        <v>0.9970272283164392</v>
+      </c>
+      <c r="I481" t="n">
+        <v>0.7975297750330834</v>
+      </c>
+      <c r="J481" t="n">
+        <v>0.5073841973793768</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="s">
@@ -13438,10 +15358,18 @@
       <c r="F483" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G483"/>
-      <c r="H483"/>
-      <c r="I483"/>
-      <c r="J483"/>
+      <c r="G483" t="n">
+        <v>0.4291547928170613</v>
+      </c>
+      <c r="H483" t="n">
+        <v>0.991331295618779</v>
+      </c>
+      <c r="I483" t="n">
+        <v>0.9404272649857455</v>
+      </c>
+      <c r="J483" t="n">
+        <v>0.16810366011312183</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="s">
@@ -13494,10 +15422,18 @@
       <c r="F485" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G485"/>
-      <c r="H485"/>
-      <c r="I485"/>
-      <c r="J485"/>
+      <c r="G485" t="n">
+        <v>0.23155320933472417</v>
+      </c>
+      <c r="H485" t="n">
+        <v>0.9942530864197531</v>
+      </c>
+      <c r="I485" t="n">
+        <v>0.7659431640187961</v>
+      </c>
+      <c r="J485" t="n">
+        <v>0.15447753140651682</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="s">
@@ -13550,10 +15486,18 @@
       <c r="F487" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G487"/>
-      <c r="H487"/>
-      <c r="I487"/>
-      <c r="J487"/>
+      <c r="G487" t="n">
+        <v>0.4127078994595238</v>
+      </c>
+      <c r="H487" t="n">
+        <v>0.9916721672612708</v>
+      </c>
+      <c r="I487" t="n">
+        <v>0.9417274472168906</v>
+      </c>
+      <c r="J487" t="n">
+        <v>0.1981000106621175</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="s">
@@ -13606,10 +15550,18 @@
       <c r="F489" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G489"/>
-      <c r="H489"/>
-      <c r="I489"/>
-      <c r="J489"/>
+      <c r="G489" t="n">
+        <v>0.2165461386482054</v>
+      </c>
+      <c r="H489" t="n">
+        <v>0.9945000216534581</v>
+      </c>
+      <c r="I489" t="n">
+        <v>0.7687531048186785</v>
+      </c>
+      <c r="J489" t="n">
+        <v>0.19242406978363527</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="s">
@@ -13662,10 +15614,18 @@
       <c r="F491" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G491"/>
-      <c r="H491"/>
-      <c r="I491"/>
-      <c r="J491"/>
+      <c r="G491" t="n">
+        <v>0.39268973050301303</v>
+      </c>
+      <c r="H491" t="n">
+        <v>0.9918950526262267</v>
+      </c>
+      <c r="I491" t="n">
+        <v>0.9425985471001548</v>
+      </c>
+      <c r="J491" t="n">
+        <v>0.23928660370490987</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="s">
@@ -13718,10 +15678,18 @@
       <c r="F493" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G493"/>
-      <c r="H493"/>
-      <c r="I493"/>
-      <c r="J493"/>
+      <c r="G493" t="n">
+        <v>0.198262834479885</v>
+      </c>
+      <c r="H493" t="n">
+        <v>0.9948437917388846</v>
+      </c>
+      <c r="I493" t="n">
+        <v>0.7930940728656879</v>
+      </c>
+      <c r="J493" t="n">
+        <v>0.24198784755119312</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="s">
@@ -13774,10 +15742,18 @@
       <c r="F495" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G495"/>
-      <c r="H495"/>
-      <c r="I495"/>
-      <c r="J495"/>
+      <c r="G495" t="n">
+        <v>0.34532192028944897</v>
+      </c>
+      <c r="H495" t="n">
+        <v>0.99252348275482</v>
+      </c>
+      <c r="I495" t="n">
+        <v>0.9424630875322587</v>
+      </c>
+      <c r="J495" t="n">
+        <v>0.32897363602998114</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="s">
@@ -13830,10 +15806,18 @@
       <c r="F497" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G497"/>
-      <c r="H497"/>
-      <c r="I497"/>
-      <c r="J497"/>
+      <c r="G497" t="n">
+        <v>0.17316070974608777</v>
+      </c>
+      <c r="H497" t="n">
+        <v>0.995824036100273</v>
+      </c>
+      <c r="I497" t="n">
+        <v>0.8050898203592814</v>
+      </c>
+      <c r="J497" t="n">
+        <v>0.34028110424807767</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="s">
@@ -13886,10 +15870,18 @@
       <c r="F499" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G499"/>
-      <c r="H499"/>
-      <c r="I499"/>
-      <c r="J499"/>
+      <c r="G499" t="n">
+        <v>0.25078450431528604</v>
+      </c>
+      <c r="H499" t="n">
+        <v>0.9931875572615386</v>
+      </c>
+      <c r="I499" t="n">
+        <v>0.9429064838557748</v>
+      </c>
+      <c r="J499" t="n">
+        <v>0.5062440768999624</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="s">
@@ -13942,10 +15934,18 @@
       <c r="F501" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G501"/>
-      <c r="H501"/>
-      <c r="I501"/>
-      <c r="J501"/>
+      <c r="G501" t="n">
+        <v>0.1434730117356496</v>
+      </c>
+      <c r="H501" t="n">
+        <v>0.9968568146530504</v>
+      </c>
+      <c r="I501" t="n">
+        <v>0.8092077975943592</v>
+      </c>
+      <c r="J501" t="n">
+        <v>0.5078357530907519</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="s">
@@ -13998,10 +15998,18 @@
       <c r="F503" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G503"/>
-      <c r="H503"/>
-      <c r="I503"/>
-      <c r="J503"/>
+      <c r="G503" t="n">
+        <v>0.4409492539124785</v>
+      </c>
+      <c r="H503" t="n">
+        <v>0.990975739344928</v>
+      </c>
+      <c r="I503" t="n">
+        <v>0.9425713486289872</v>
+      </c>
+      <c r="J503" t="n">
+        <v>0.16860345448620093</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="s">
@@ -14054,10 +16062,18 @@
       <c r="F505" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G505"/>
-      <c r="H505"/>
-      <c r="I505"/>
-      <c r="J505"/>
+      <c r="G505" t="n">
+        <v>0.23813471567677433</v>
+      </c>
+      <c r="H505" t="n">
+        <v>0.9940123456790123</v>
+      </c>
+      <c r="I505" t="n">
+        <v>0.777307366638442</v>
+      </c>
+      <c r="J505" t="n">
+        <v>0.15468984460438973</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="s">
@@ -14110,10 +16126,18 @@
       <c r="F507" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G507"/>
-      <c r="H507"/>
-      <c r="I507"/>
-      <c r="J507"/>
+      <c r="G507" t="n">
+        <v>0.42424169974557596</v>
+      </c>
+      <c r="H507" t="n">
+        <v>0.9913198592387718</v>
+      </c>
+      <c r="I507" t="n">
+        <v>0.9445411679361625</v>
+      </c>
+      <c r="J507" t="n">
+        <v>0.1987206640566502</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="s">
@@ -14166,10 +16190,18 @@
       <c r="F509" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G509"/>
-      <c r="H509"/>
-      <c r="I509"/>
-      <c r="J509"/>
+      <c r="G509" t="n">
+        <v>0.22264711189838948</v>
+      </c>
+      <c r="H509" t="n">
+        <v>0.994233993454469</v>
+      </c>
+      <c r="I509" t="n">
+        <v>0.7796966161026838</v>
+      </c>
+      <c r="J509" t="n">
+        <v>0.19265764194908538</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="s">
@@ -14222,10 +16254,18 @@
       <c r="F511" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G511"/>
-      <c r="H511"/>
-      <c r="I511"/>
-      <c r="J511"/>
+      <c r="G511" t="n">
+        <v>0.40399607120505776</v>
+      </c>
+      <c r="H511" t="n">
+        <v>0.991559465093812</v>
+      </c>
+      <c r="I511" t="n">
+        <v>0.9452322004651512</v>
+      </c>
+      <c r="J511" t="n">
+        <v>0.2400062347600685</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="s">
@@ -14278,10 +16318,18 @@
       <c r="F513" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G513"/>
-      <c r="H513"/>
-      <c r="I513"/>
-      <c r="J513"/>
+      <c r="G513" t="n">
+        <v>0.20385640156297505</v>
+      </c>
+      <c r="H513" t="n">
+        <v>0.9946201489709326</v>
+      </c>
+      <c r="I513" t="n">
+        <v>0.8035213064557285</v>
+      </c>
+      <c r="J513" t="n">
+        <v>0.24229983362959495</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="s">
@@ -14334,10 +16382,18 @@
       <c r="F515" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G515"/>
-      <c r="H515"/>
-      <c r="I515"/>
-      <c r="J515"/>
+      <c r="G515" t="n">
+        <v>0.35564858027144</v>
+      </c>
+      <c r="H515" t="n">
+        <v>0.9922336636492596</v>
+      </c>
+      <c r="I515" t="n">
+        <v>0.9451258617925284</v>
+      </c>
+      <c r="J515" t="n">
+        <v>0.32987201416013545</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="s">
@@ -14390,10 +16446,18 @@
       <c r="F517" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G517"/>
-      <c r="H517"/>
-      <c r="I517"/>
-      <c r="J517"/>
+      <c r="G517" t="n">
+        <v>0.17789781030661514</v>
+      </c>
+      <c r="H517" t="n">
+        <v>0.9955123970032784</v>
+      </c>
+      <c r="I517" t="n">
+        <v>0.8154711673699016</v>
+      </c>
+      <c r="J517" t="n">
+        <v>0.34071128782858406</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="s">
@@ -14446,10 +16510,18 @@
       <c r="F519" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G519"/>
-      <c r="H519"/>
-      <c r="I519"/>
-      <c r="J519"/>
+      <c r="G519" t="n">
+        <v>0.2579225095190077</v>
+      </c>
+      <c r="H519" t="n">
+        <v>0.9930469383365597</v>
+      </c>
+      <c r="I519" t="n">
+        <v>0.9456693691912201</v>
+      </c>
+      <c r="J519" t="n">
+        <v>0.5074204038991348</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="s">
@@ -14502,10 +16574,18 @@
       <c r="F521" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G521"/>
-      <c r="H521"/>
-      <c r="I521"/>
-      <c r="J521"/>
+      <c r="G521" t="n">
+        <v>0.14700999024737538</v>
+      </c>
+      <c r="H521" t="n">
+        <v>0.9967242706926369</v>
+      </c>
+      <c r="I521" t="n">
+        <v>0.8204129333852747</v>
+      </c>
+      <c r="J521" t="n">
+        <v>0.5083263816148477</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
@@ -14558,10 +16638,18 @@
       <c r="F523" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G523"/>
-      <c r="H523"/>
-      <c r="I523"/>
-      <c r="J523"/>
+      <c r="G523" t="n">
+        <v>0.4624887182724514</v>
+      </c>
+      <c r="H523" t="n">
+        <v>0.9899373534087947</v>
+      </c>
+      <c r="I523" t="n">
+        <v>0.9467958737105345</v>
+      </c>
+      <c r="J523" t="n">
+        <v>0.16971123733828644</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="s">
@@ -14614,10 +16702,18 @@
       <c r="F525" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G525"/>
-      <c r="H525"/>
-      <c r="I525"/>
-      <c r="J525"/>
+      <c r="G525" t="n">
+        <v>0.25032551364936356</v>
+      </c>
+      <c r="H525" t="n">
+        <v>0.9935123456790124</v>
+      </c>
+      <c r="I525" t="n">
+        <v>0.7998869417750142</v>
+      </c>
+      <c r="J525" t="n">
+        <v>0.15520157250164335</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="s">
@@ -14670,10 +16766,18 @@
       <c r="F527" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G527"/>
-      <c r="H527"/>
-      <c r="I527"/>
-      <c r="J527"/>
+      <c r="G527" t="n">
+        <v>0.44536373992724226</v>
+      </c>
+      <c r="H527" t="n">
+        <v>0.9903722721437741</v>
+      </c>
+      <c r="I527" t="n">
+        <v>0.9486158265865762</v>
+      </c>
+      <c r="J527" t="n">
+        <v>0.19993410398649347</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
@@ -14726,10 +16830,18 @@
       <c r="F529" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G529"/>
-      <c r="H529"/>
-      <c r="I529"/>
-      <c r="J529"/>
+      <c r="G529" t="n">
+        <v>0.23385233488970025</v>
+      </c>
+      <c r="H529" t="n">
+        <v>0.993887538125553</v>
+      </c>
+      <c r="I529" t="n">
+        <v>0.8034276275036135</v>
+      </c>
+      <c r="J529" t="n">
+        <v>0.19329078564747354</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="s">
@@ -14782,10 +16894,18 @@
       <c r="F531" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G531"/>
-      <c r="H531"/>
-      <c r="I531"/>
-      <c r="J531"/>
+      <c r="G531" t="n">
+        <v>0.4246477438631921</v>
+      </c>
+      <c r="H531" t="n">
+        <v>0.9906763082654476</v>
+      </c>
+      <c r="I531" t="n">
+        <v>0.9491330262801408</v>
+      </c>
+      <c r="J531" t="n">
+        <v>0.24139583046885743</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="s">
@@ -14838,10 +16958,18 @@
       <c r="F533" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G533"/>
-      <c r="H533"/>
-      <c r="I533"/>
-      <c r="J533"/>
+      <c r="G533" t="n">
+        <v>0.21410495408145375</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0.9943095693661009</v>
+      </c>
+      <c r="I533" t="n">
+        <v>0.8246958089229383</v>
+      </c>
+      <c r="J533" t="n">
+        <v>0.24304718142699383</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="s">
@@ -14894,10 +17022,18 @@
       <c r="F535" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G535"/>
-      <c r="H535"/>
-      <c r="I535"/>
-      <c r="J535"/>
+      <c r="G535" t="n">
+        <v>0.37472249662395135</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0.9914213535651173</v>
+      </c>
+      <c r="I535" t="n">
+        <v>0.9495512449334106</v>
+      </c>
+      <c r="J535" t="n">
+        <v>0.33171291145307336</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="s">
@@ -14950,10 +17086,18 @@
       <c r="F537" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G537"/>
-      <c r="H537"/>
-      <c r="I537"/>
-      <c r="J537"/>
+      <c r="G537" t="n">
+        <v>0.18661025642175064</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0.9952194562521036</v>
+      </c>
+      <c r="I537" t="n">
+        <v>0.8355312266733018</v>
+      </c>
+      <c r="J537" t="n">
+        <v>0.3416803286471158</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="s">
@@ -15006,10 +17150,18 @@
       <c r="F539" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G539"/>
-      <c r="H539"/>
-      <c r="I539"/>
-      <c r="J539"/>
+      <c r="G539" t="n">
+        <v>0.2709187364891841</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0.9927202336143213</v>
+      </c>
+      <c r="I539" t="n">
+        <v>0.9502501013924564</v>
+      </c>
+      <c r="J539" t="n">
+        <v>0.5095165278156719</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="s">
@@ -15062,10 +17214,18 @@
       <c r="F541" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G541"/>
-      <c r="H541"/>
-      <c r="I541"/>
-      <c r="J541"/>
+      <c r="G541" t="n">
+        <v>0.15311466914107255</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0.9964718060061349</v>
+      </c>
+      <c r="I541" t="n">
+        <v>0.8351417570878544</v>
+      </c>
+      <c r="J541" t="n">
+        <v>0.5091898481240142</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
